--- a/Testing data.xlsx
+++ b/Testing data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cs 2020 Summer\Timetable DWA\Scheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A2F739-3644-4F2E-9696-43108236B407}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB372DFF-70DD-4A84-979A-4AEC9F9F234A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
   <si>
     <t>Course 1</t>
   </si>
@@ -56,33 +56,6 @@
     <t>Course 6</t>
   </si>
   <si>
-    <t>Course 7</t>
-  </si>
-  <si>
-    <t>Course 8</t>
-  </si>
-  <si>
-    <t>Course 9</t>
-  </si>
-  <si>
-    <t>Course 10</t>
-  </si>
-  <si>
-    <t>Course 11</t>
-  </si>
-  <si>
-    <t>Course 12</t>
-  </si>
-  <si>
-    <t>Course 13</t>
-  </si>
-  <si>
-    <t>Course 14</t>
-  </si>
-  <si>
-    <t>Course 15</t>
-  </si>
-  <si>
     <t>Prof 1</t>
   </si>
   <si>
@@ -98,12 +71,6 @@
     <t>Prof 5</t>
   </si>
   <si>
-    <t>Sem 1</t>
-  </si>
-  <si>
-    <t>Sem 2</t>
-  </si>
-  <si>
     <t>Unit</t>
   </si>
   <si>
@@ -120,6 +87,12 @@
   </si>
   <si>
     <t>Prof 0</t>
+  </si>
+  <si>
+    <t>Fall</t>
+  </si>
+  <si>
+    <t>Spring</t>
   </si>
 </sst>
 </file>
@@ -443,17 +416,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -473,49 +446,22 @@
       <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <f ca="1">MOD(INT(RAND()*100),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:Q2" ca="1" si="0">MOD(INT(RAND()*100),2)</f>
+        <f t="shared" ref="C2:H2" ca="1" si="0">MOD(INT(RAND()*100),2)</f>
         <v>1</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
@@ -527,64 +473,28 @@
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="I2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:Q7" ca="1" si="1">MOD(INT(RAND()*100),2)</f>
+        <f t="shared" ref="B3:H7" ca="1" si="1">MOD(INT(RAND()*100),2)</f>
         <v>1</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="1"/>
@@ -592,56 +502,20 @@
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="I3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
@@ -653,15 +527,15 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">MOD(INT(RAND()*100),2)</f>
         <v>0</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
@@ -671,54 +545,18 @@
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
@@ -726,7 +564,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
@@ -734,52 +572,16 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <f ca="1">MOD(INT(RAND()*100),2)</f>
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <f ca="1">MOD(INT(RAND()*100),2)</f>
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
@@ -787,7 +589,7 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
@@ -795,64 +597,28 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <f ca="1">MOD(INT(RAND()*100),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f ca="1">MOD(INT(RAND()*100),2)</f>
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
@@ -860,7 +626,7 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <f ca="1">MOD(INT(RAND()*100),2)</f>
@@ -872,46 +638,10 @@
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <f ca="1">MOD(INT(RAND()*100),2)</f>
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <f ca="1">MOD(INT(RAND()*100),2)</f>
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -923,17 +653,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCE1BA5-4E35-4BCB-B104-2CE874789A6D}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -953,44 +683,17 @@
       <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <f ca="1">MOD(INT(RAND()*100),2)</f>
         <v>0</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:Q2" ca="1" si="0">MOD(INT(RAND()*100),2)</f>
+        <f t="shared" ref="C2:H2" ca="1" si="0">MOD(INT(RAND()*100),2)</f>
         <v>0</v>
       </c>
       <c r="D2">
@@ -1007,55 +710,19 @@
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:Q7" ca="1" si="1">MOD(INT(RAND()*100),2)</f>
+        <f t="shared" ref="B3:H7" ca="1" si="1">MOD(INT(RAND()*100),2)</f>
         <v>0</v>
       </c>
       <c r="C3">
@@ -1076,56 +743,20 @@
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="I3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
@@ -1133,11 +764,11 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
@@ -1145,52 +776,16 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
@@ -1206,11 +801,11 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
@@ -1220,46 +815,10 @@
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
@@ -1271,7 +830,7 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
@@ -1279,56 +838,20 @@
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6">
-        <f ca="1">MOD(INT(RAND()*100),2)</f>
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
@@ -1336,11 +859,11 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
@@ -1348,49 +871,13 @@
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q7">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
@@ -1402,46 +889,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55087B8-EDE9-4531-8D48-791EBDB20673}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <f ca="1">MOD(INT(RAND()*100),2)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <f ca="1">ABS(B2-1)</f>
-        <v>0</v>
+        <f ca="1">SUM(D2:Y2)*B2</f>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <f ca="1">RANDBETWEEN(0,2)</f>
+        <v>1</v>
       </c>
       <c r="E2">
-        <f>SUM(D2:D17)</f>
-        <v>76</v>
+        <f ca="1">ABS(D2-1)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1449,15 +936,19 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:C17" ca="1" si="0">MOD(INT(RAND()*100),2)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C17" ca="1" si="1">ABS(B3-1)</f>
-        <v>0</v>
+        <f t="shared" ref="C3:C17" ca="1" si="0">SUM(D3:Y3)*B3</f>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <f t="shared" ref="D3:D8" ca="1" si="1">RANDBETWEEN(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E8" ca="1" si="2">ABS(D3-1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1465,15 +956,19 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
       </c>
       <c r="D4">
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1481,15 +976,19 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f ca="1">ABS(D5-1)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1497,15 +996,19 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <f ca="1">ABS(D6-1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1513,15 +1016,19 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f ca="1">SUM(D7:Y7)*B7</f>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1529,159 +1036,19 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1696,42 +1063,42 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <f>SUM(B2:B7)</f>
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -1739,15 +1106,15 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>16</v>
@@ -1755,10 +1122,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Testing data.xlsx
+++ b/Testing data.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cs 2020 Summer\Timetable DWA\Scheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB372DFF-70DD-4A84-979A-4AEC9F9F234A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711B8DD2-0E8C-4464-A5A6-50D10E3986E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6705" yWindow="1605" windowWidth="21600" windowHeight="11265" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CanTeach" sheetId="1" r:id="rId1"/>
     <sheet name="Prefer" sheetId="4" r:id="rId2"/>
     <sheet name="Course" sheetId="2" r:id="rId3"/>
     <sheet name="Prof" sheetId="3" r:id="rId4"/>
+    <sheet name="Time" sheetId="6" r:id="rId5"/>
+    <sheet name="OxyTime" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="41">
   <si>
     <t>Course 1</t>
   </si>
@@ -93,13 +95,79 @@
   </si>
   <si>
     <t>Spring</t>
+  </si>
+  <si>
+    <t>LECTURE PERIODS</t>
+  </si>
+  <si>
+    <t>START TIME</t>
+  </si>
+  <si>
+    <t>END TIME</t>
+  </si>
+  <si>
+    <t>Monday through Friday</t>
+  </si>
+  <si>
+    <t>am</t>
+  </si>
+  <si>
+    <t>pm</t>
+  </si>
+  <si>
+    <t>Monday, Wednesday and Friday</t>
+  </si>
+  <si>
+    <t>Tuesday and Thursday</t>
+  </si>
+  <si>
+    <t>Monday and Wednesday</t>
+  </si>
+  <si>
+    <t>Monday and Friday</t>
+  </si>
+  <si>
+    <t>Wednesday and Friday</t>
+  </si>
+  <si>
+    <t>Tuesday or Thursday</t>
+  </si>
+  <si>
+    <t>Tuesday, Wednesday or Thursday</t>
+  </si>
+  <si>
+    <t>LABORATORY PERIODS</t>
+  </si>
+  <si>
+    <t>Wednesday, or Friday</t>
+  </si>
+  <si>
+    <t>Monday or Wednesday</t>
+  </si>
+  <si>
+    <t>Monday or Wednesday or Thursday</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thur</t>
+  </si>
+  <si>
+    <t>Fri</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,18 +181,78 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -134,8 +262,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,11 +614,11 @@
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
@@ -473,11 +626,11 @@
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -494,7 +647,7 @@
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="1"/>
@@ -502,11 +655,11 @@
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="1"/>
@@ -523,7 +676,7 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
@@ -535,11 +688,11 @@
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
@@ -572,7 +725,7 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
@@ -585,7 +738,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
@@ -593,7 +746,7 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
@@ -601,15 +754,15 @@
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f ca="1">MOD(INT(RAND()*100),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -617,32 +770,25 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="D7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <f ca="1">MOD(INT(RAND()*100),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="H7">
-        <f ca="1">MOD(INT(RAND()*100),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -698,11 +844,11 @@
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
@@ -714,7 +860,7 @@
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -723,11 +869,11 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:H7" ca="1" si="1">MOD(INT(RAND()*100),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="1"/>
@@ -760,23 +906,23 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
@@ -797,11 +943,11 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
@@ -809,7 +955,7 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
@@ -822,15 +968,15 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
@@ -842,11 +988,11 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -863,7 +1009,7 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
@@ -871,15 +1017,15 @@
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -891,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55087B8-EDE9-4531-8D48-791EBDB20673}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,12 +1069,12 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <f ca="1">RANDBETWEEN(0,2)</f>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(0,3)</f>
+        <v>0</v>
       </c>
       <c r="E2">
         <f ca="1">ABS(D2-1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -943,7 +1089,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D8" ca="1" si="1">RANDBETWEEN(0,2)</f>
+        <f t="shared" ref="D3:D8" ca="1" si="1">RANDBETWEEN(0,3)</f>
         <v>0</v>
       </c>
       <c r="E3">
@@ -980,15 +1126,15 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <f ca="1">ABS(D5-1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1000,15 +1146,15 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <f ca="1">ABS(D6-1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1040,15 +1186,15 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1063,7 +1209,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,4 +1278,1353 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709CA693-7B71-4760-95D6-DBE94D9FE574}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.3923611111111111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0.61805555555555558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0.3923611111111111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.4826388888888889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0.52777777777777779</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0.61805555555555558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0.66319444444444442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>0</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0.91319444444444453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>0</v>
+      </c>
+      <c r="B12" s="10">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>0</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0.62152777777777779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>0</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>0</v>
+      </c>
+      <c r="B15" s="10">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0.76736111111111116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>1</v>
+      </c>
+      <c r="B16" s="10">
+        <v>0</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0.3923611111111111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>1</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>1</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0.79513888888888884</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>1</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0.86111111111111116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>1</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0</v>
+      </c>
+      <c r="C20" s="10">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
+      <c r="F20" s="11">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="G20" s="11">
+        <v>0.92708333333333337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>1</v>
+      </c>
+      <c r="B21" s="10">
+        <v>0</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0.3923611111111111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>1</v>
+      </c>
+      <c r="B22" s="10">
+        <v>0</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>0</v>
+      </c>
+      <c r="B23" s="10">
+        <v>0</v>
+      </c>
+      <c r="C23" s="10">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0</v>
+      </c>
+      <c r="E23" s="10">
+        <v>1</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0.3923611111111111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>0</v>
+      </c>
+      <c r="B24" s="10">
+        <v>0</v>
+      </c>
+      <c r="C24" s="10">
+        <v>1</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="G24" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>0</v>
+      </c>
+      <c r="B25" s="10">
+        <v>1</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0</v>
+      </c>
+      <c r="F25" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0.68402777777777779</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>0</v>
+      </c>
+      <c r="B26" s="10">
+        <v>0</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0</v>
+      </c>
+      <c r="F26" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="G26" s="11">
+        <v>0.68402777777777779</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>0</v>
+      </c>
+      <c r="B27" s="10">
+        <v>1</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="G27" s="11">
+        <v>0.92708333333333337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>0</v>
+      </c>
+      <c r="B28" s="10">
+        <v>0</v>
+      </c>
+      <c r="C28" s="10">
+        <v>1</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0</v>
+      </c>
+      <c r="F28" s="11">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="G28" s="11">
+        <v>0.92708333333333337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>0</v>
+      </c>
+      <c r="B29" s="10">
+        <v>0</v>
+      </c>
+      <c r="C29" s="10">
+        <v>0</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0.92708333333333337</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26F49D5-A316-4571-84F2-F4DF29EA2B57}">
+  <dimension ref="A1:Q34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="32.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+    </row>
+    <row r="2" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+    </row>
+    <row r="3" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="7">
+        <v>7.9861111111111105E-2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.11805555555555557</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="4">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.18402777777777779</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+    </row>
+    <row r="4" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="4">
+        <v>7.9861111111111105E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.20138888888888887</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+    </row>
+    <row r="5" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.24652777777777779</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+    </row>
+    <row r="6" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+    </row>
+    <row r="7" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+    </row>
+    <row r="8" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="7">
+        <v>7.9861111111111105E-2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.11805555555555557</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+    </row>
+    <row r="9" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.16319444444444445</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+    </row>
+    <row r="10" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.17013888888888887</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+    </row>
+    <row r="11" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+    </row>
+    <row r="12" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+    </row>
+    <row r="13" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.12152777777777778</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+    </row>
+    <row r="14" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.12847222222222224</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.1875</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+    </row>
+    <row r="15" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+    </row>
+    <row r="16" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+    </row>
+    <row r="17" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.17013888888888887</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+    </row>
+    <row r="18" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+    </row>
+    <row r="19" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+    </row>
+    <row r="20" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+    </row>
+    <row r="21" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+    </row>
+    <row r="22" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.17013888888888887</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+    </row>
+    <row r="23" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+    </row>
+    <row r="24" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.17013888888888887</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+    </row>
+    <row r="25" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.18402777777777779</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+    </row>
+    <row r="26" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+    </row>
+    <row r="28" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+    </row>
+    <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+    </row>
+    <row r="30" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Testing data.xlsx
+++ b/Testing data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cs 2020 Summer\Timetable DWA\Scheduling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cs 2020 Summer\department-course-scheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711B8DD2-0E8C-4464-A5A6-50D10E3986E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD94E1BA-FED7-4765-AD92-36F3594EEC5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6705" yWindow="1605" windowWidth="21600" windowHeight="11265" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12630" yWindow="3000" windowWidth="16170" windowHeight="7365" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CanTeach" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="52">
   <si>
     <t>Course 1</t>
   </si>
@@ -82,9 +82,6 @@
     <t>UnitSum</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
     <t>Course 0</t>
   </si>
   <si>
@@ -161,6 +158,42 @@
   </si>
   <si>
     <t>Fri</t>
+  </si>
+  <si>
+    <t>Afternoon</t>
+  </si>
+  <si>
+    <t>Morning</t>
+  </si>
+  <si>
+    <t>Evening</t>
+  </si>
+  <si>
+    <t>MWF</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>WF</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>MTWRF</t>
   </si>
 </sst>
 </file>
@@ -572,14 +605,14 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -602,15 +635,15 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <f ca="1">MOD(INT(RAND()*100),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:H2" ca="1" si="0">MOD(INT(RAND()*100),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
@@ -618,11 +651,11 @@
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
@@ -638,12 +671,12 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:H7" ca="1" si="1">MOD(INT(RAND()*100),2)</f>
+        <f t="shared" ref="B3:H6" ca="1" si="1">MOD(INT(RAND()*100),2)</f>
         <v>1</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="1"/>
@@ -651,15 +684,15 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="1"/>
@@ -672,19 +705,19 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <f ca="1">MOD(INT(RAND()*100),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
@@ -692,7 +725,7 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
@@ -713,7 +746,7 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
@@ -721,15 +754,15 @@
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -742,7 +775,7 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
@@ -754,7 +787,7 @@
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <f ca="1">MOD(INT(RAND()*100),2)</f>
@@ -762,7 +795,7 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -802,14 +835,14 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -832,7 +865,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <f ca="1">MOD(INT(RAND()*100),2)</f>
@@ -852,15 +885,15 @@
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -877,11 +910,11 @@
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
@@ -902,15 +935,15 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
@@ -947,7 +980,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
@@ -968,7 +1001,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
@@ -976,23 +1009,23 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1001,11 +1034,11 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
@@ -1025,7 +1058,7 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1037,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55087B8-EDE9-4531-8D48-791EBDB20673}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,15 +1084,15 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -1069,12 +1102,12 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <f ca="1">RANDBETWEEN(0,3)</f>
-        <v>0</v>
+        <f ca="1">RANDBETWEEN(0,4)</f>
+        <v>1</v>
       </c>
       <c r="E2">
         <f ca="1">ABS(D2-1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1085,12 +1118,12 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C17" ca="1" si="0">SUM(D3:Y3)*B3</f>
-        <v>4</v>
+        <f t="shared" ref="C3:C8" ca="1" si="0">SUM(D3:Y3)*B3</f>
+        <v>12</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D8" ca="1" si="1">RANDBETWEEN(0,3)</f>
-        <v>0</v>
+        <f t="shared" ref="D3:D8" ca="1" si="1">RANDBETWEEN(0,4)</f>
+        <v>2</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E8" ca="1" si="2">ABS(D3-1)</f>
@@ -1106,15 +1139,15 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1126,15 +1159,15 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <f ca="1">ABS(D5-1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1146,15 +1179,15 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <f ca="1">ABS(D6-1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1186,15 +1219,15 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1206,86 +1239,404 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FE03E8-5E32-411A-8E39-F9A87C02495E}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
         <v>16</v>
       </c>
-      <c r="B2">
-        <v>24</v>
-      </c>
       <c r="C2">
-        <f>SUM(B2:B7)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <f ca="1">MOD(INT(RAND()*100),2)</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:N2" ca="1" si="0">MOD(INT(RAND()*100),2)</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:N7" ca="1" si="1">MOD(INT(RAND()*100),2)</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709CA693-7B71-4760-95D6-DBE94D9FE574}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,30 +1645,36 @@
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="F1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1340,7 +1697,7 @@
         <v>0.3923611111111111</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1363,7 +1720,7 @@
         <v>0.61805555555555558</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1386,7 +1743,7 @@
         <v>0.3923611111111111</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1409,7 +1766,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1432,7 +1789,7 @@
         <v>0.4826388888888889</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1455,7 +1812,7 @@
         <v>0.52777777777777779</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1478,7 +1835,7 @@
         <v>0.61805555555555558</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1501,7 +1858,7 @@
         <v>0.66319444444444442</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1524,7 +1881,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>0</v>
       </c>
@@ -1547,7 +1904,7 @@
         <v>0.91319444444444453</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>0</v>
       </c>
@@ -1570,7 +1927,7 @@
         <v>0.47916666666666669</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>0</v>
       </c>
@@ -1593,7 +1950,7 @@
         <v>0.62152777777777779</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>0</v>
       </c>
@@ -1616,7 +1973,7 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>0</v>
       </c>
@@ -1639,7 +1996,7 @@
         <v>0.76736111111111116</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>1</v>
       </c>
@@ -1962,6 +2319,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1971,7 +2329,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1991,22 +2349,22 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
@@ -2018,7 +2376,7 @@
     </row>
     <row r="2" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="7">
         <v>0.35416666666666669</v>
@@ -2027,10 +2385,10 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="4">
         <v>0.35416666666666669</v>
@@ -2039,7 +2397,7 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
@@ -2050,7 +2408,7 @@
     </row>
     <row r="3" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="7">
         <v>7.9861111111111105E-2</v>
@@ -2059,10 +2417,10 @@
         <v>0.11805555555555557</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="4">
         <v>6.25E-2</v>
@@ -2071,7 +2429,7 @@
         <v>0.18402777777777779</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
@@ -2082,7 +2440,7 @@
     </row>
     <row r="4" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="7">
         <v>0.35416666666666669</v>
@@ -2091,10 +2449,10 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="4">
         <v>7.9861111111111105E-2</v>
@@ -2103,7 +2461,7 @@
         <v>0.20138888888888887</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L4" s="10"/>
       <c r="P4" s="11"/>
@@ -2111,7 +2469,7 @@
     </row>
     <row r="5" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="7">
         <v>0.39930555555555558</v>
@@ -2120,10 +2478,10 @@
         <v>0.4375</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="4">
         <v>0.125</v>
@@ -2132,7 +2490,7 @@
         <v>0.24652777777777779</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L5" s="10"/>
       <c r="P5" s="11"/>
@@ -2140,7 +2498,7 @@
     </row>
     <row r="6" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="7">
         <v>0.44444444444444442</v>
@@ -2149,10 +2507,10 @@
         <v>0.4826388888888889</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="4">
         <v>0.30208333333333331</v>
@@ -2161,7 +2519,7 @@
         <v>0.4236111111111111</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L6" s="10"/>
       <c r="P6" s="11"/>
@@ -2169,7 +2527,7 @@
     </row>
     <row r="7" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="8">
         <v>0.48958333333333331</v>
@@ -2178,7 +2536,7 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L7" s="10"/>
       <c r="P7" s="11"/>
@@ -2186,7 +2544,7 @@
     </row>
     <row r="8" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="7">
         <v>7.9861111111111105E-2</v>
@@ -2195,7 +2553,7 @@
         <v>0.11805555555555557</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L8" s="10"/>
       <c r="P8" s="11"/>
@@ -2203,7 +2561,7 @@
     </row>
     <row r="9" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="7">
         <v>0.125</v>
@@ -2212,7 +2570,7 @@
         <v>0.16319444444444445</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L9" s="10"/>
       <c r="P9" s="11"/>
@@ -2220,7 +2578,7 @@
     </row>
     <row r="10" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="7">
         <v>0.17013888888888887</v>
@@ -2229,7 +2587,7 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L10" s="10"/>
       <c r="P10" s="11"/>
@@ -2237,7 +2595,7 @@
     </row>
     <row r="11" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="7">
         <v>0.35416666666666669</v>
@@ -2246,7 +2604,7 @@
         <v>0.41319444444444442</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
@@ -2258,7 +2616,7 @@
     </row>
     <row r="12" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="7">
         <v>0.4201388888888889</v>
@@ -2267,7 +2625,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -2279,7 +2637,7 @@
     </row>
     <row r="13" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="7">
         <v>6.25E-2</v>
@@ -2288,7 +2646,7 @@
         <v>0.12152777777777778</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
@@ -2300,7 +2658,7 @@
     </row>
     <row r="14" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="7">
         <v>0.12847222222222224</v>
@@ -2309,7 +2667,7 @@
         <v>0.1875</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
@@ -2321,7 +2679,7 @@
     </row>
     <row r="15" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="7">
         <v>0.20833333333333334</v>
@@ -2330,7 +2688,7 @@
         <v>0.2673611111111111</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
@@ -2342,7 +2700,7 @@
     </row>
     <row r="16" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="7">
         <v>0.33333333333333331</v>
@@ -2351,7 +2709,7 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
@@ -2363,7 +2721,7 @@
     </row>
     <row r="17" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="7">
         <v>0.17013888888888887</v>
@@ -2372,7 +2730,7 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
@@ -2384,7 +2742,7 @@
     </row>
     <row r="18" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="7">
         <v>0.23611111111111113</v>
@@ -2393,7 +2751,7 @@
         <v>0.2951388888888889</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
@@ -2405,7 +2763,7 @@
     </row>
     <row r="19" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="7">
         <v>0.30208333333333331</v>
@@ -2414,7 +2772,7 @@
         <v>0.3611111111111111</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
@@ -2426,7 +2784,7 @@
     </row>
     <row r="20" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="7">
         <v>0.36805555555555558</v>
@@ -2435,7 +2793,7 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
@@ -2447,7 +2805,7 @@
     </row>
     <row r="21" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="7">
         <v>0.33333333333333331</v>
@@ -2456,7 +2814,7 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
@@ -2468,7 +2826,7 @@
     </row>
     <row r="22" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="7">
         <v>0.17013888888888887</v>
@@ -2477,7 +2835,7 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
@@ -2489,7 +2847,7 @@
     </row>
     <row r="23" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="7">
         <v>0.33333333333333331</v>
@@ -2498,7 +2856,7 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -2510,7 +2868,7 @@
     </row>
     <row r="24" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="7">
         <v>0.17013888888888887</v>
@@ -2519,7 +2877,7 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -2531,7 +2889,7 @@
     </row>
     <row r="25" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="7">
         <v>6.25E-2</v>
@@ -2540,7 +2898,7 @@
         <v>0.18402777777777779</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -2552,7 +2910,7 @@
     </row>
     <row r="26" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="7">
         <v>0.30208333333333331</v>
@@ -2561,7 +2919,7 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>

--- a/Testing data.xlsx
+++ b/Testing data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cs 2020 Summer\Timetable DWA\Scheduling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cs 2020 Summer\department-course-scheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711B8DD2-0E8C-4464-A5A6-50D10E3986E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FB5E7D-7E78-4AF6-9859-84506818250A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6705" yWindow="1605" windowWidth="21600" windowHeight="11265" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CanTeach" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="54">
   <si>
     <t>Course 1</t>
   </si>
@@ -82,9 +82,6 @@
     <t>UnitSum</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
     <t>Course 0</t>
   </si>
   <si>
@@ -161,6 +158,48 @@
   </si>
   <si>
     <t>Fri</t>
+  </si>
+  <si>
+    <t>MWF</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>MTWRF</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>WF</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Morning, Evening</t>
+  </si>
+  <si>
+    <t>Evening</t>
+  </si>
+  <si>
+    <t>Afternoon</t>
+  </si>
+  <si>
+    <t>Morning, Afternoon, Evening</t>
+  </si>
+  <si>
+    <t>Morning</t>
   </si>
 </sst>
 </file>
@@ -579,7 +618,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -602,7 +641,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <f ca="1">MOD(INT(RAND()*100),2)</f>
@@ -622,11 +661,11 @@
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
@@ -638,16 +677,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:H7" ca="1" si="1">MOD(INT(RAND()*100),2)</f>
+        <f t="shared" ref="B3:H6" ca="1" si="1">MOD(INT(RAND()*100),2)</f>
         <v>1</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="1"/>
@@ -655,7 +694,7 @@
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="1"/>
@@ -663,7 +702,7 @@
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -676,7 +715,7 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
@@ -684,19 +723,19 @@
       </c>
       <c r="E4">
         <f ca="1">MOD(INT(RAND()*100),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -705,11 +744,11 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
@@ -717,7 +756,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
@@ -725,7 +764,7 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
@@ -754,7 +793,7 @@
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <f ca="1">MOD(INT(RAND()*100),2)</f>
@@ -809,7 +848,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -832,11 +871,11 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <f ca="1">MOD(INT(RAND()*100),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:H2" ca="1" si="0">MOD(INT(RAND()*100),2)</f>
@@ -844,7 +883,7 @@
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
@@ -852,11 +891,11 @@
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
@@ -877,15 +916,15 @@
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="1"/>
@@ -893,7 +932,7 @@
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -902,15 +941,15 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
@@ -926,7 +965,7 @@
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -939,7 +978,7 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
@@ -947,11 +986,11 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
@@ -972,7 +1011,7 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
@@ -988,7 +1027,7 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
@@ -1001,15 +1040,15 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
@@ -1017,7 +1056,7 @@
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
@@ -1037,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55087B8-EDE9-4531-8D48-791EBDB20673}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,15 +1090,15 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -1085,16 +1124,16 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C17" ca="1" si="0">SUM(D3:Y3)*B3</f>
+        <f t="shared" ref="C3:C8" ca="1" si="0">SUM(D3:Y3)*B3</f>
         <v>4</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D8" ca="1" si="1">RANDBETWEEN(0,3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E8" ca="1" si="2">ABS(D3-1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1106,15 +1145,15 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1126,11 +1165,11 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <f ca="1">ABS(D5-1)</f>
@@ -1146,15 +1185,15 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <f ca="1">ABS(D6-1)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1166,11 +1205,11 @@
       </c>
       <c r="C7">
         <f ca="1">SUM(D7:Y7)*B7</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="2"/>
@@ -1206,72 +1245,164 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FE03E8-5E32-411A-8E39-F9A87C02495E}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
         <v>16</v>
       </c>
-      <c r="B2">
-        <v>24</v>
-      </c>
-      <c r="C2">
-        <f>SUM(B2:B7)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1284,8 +1415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709CA693-7B71-4760-95D6-DBE94D9FE574}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,25 +1427,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="F1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1991,22 +2122,22 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
@@ -2018,7 +2149,7 @@
     </row>
     <row r="2" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="7">
         <v>0.35416666666666669</v>
@@ -2027,10 +2158,10 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="4">
         <v>0.35416666666666669</v>
@@ -2039,7 +2170,7 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
@@ -2050,7 +2181,7 @@
     </row>
     <row r="3" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="7">
         <v>7.9861111111111105E-2</v>
@@ -2059,10 +2190,10 @@
         <v>0.11805555555555557</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="4">
         <v>6.25E-2</v>
@@ -2071,7 +2202,7 @@
         <v>0.18402777777777779</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
@@ -2082,7 +2213,7 @@
     </row>
     <row r="4" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="7">
         <v>0.35416666666666669</v>
@@ -2091,10 +2222,10 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="4">
         <v>7.9861111111111105E-2</v>
@@ -2103,7 +2234,7 @@
         <v>0.20138888888888887</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L4" s="10"/>
       <c r="P4" s="11"/>
@@ -2111,7 +2242,7 @@
     </row>
     <row r="5" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="7">
         <v>0.39930555555555558</v>
@@ -2120,10 +2251,10 @@
         <v>0.4375</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="4">
         <v>0.125</v>
@@ -2132,7 +2263,7 @@
         <v>0.24652777777777779</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L5" s="10"/>
       <c r="P5" s="11"/>
@@ -2140,7 +2271,7 @@
     </row>
     <row r="6" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="7">
         <v>0.44444444444444442</v>
@@ -2149,10 +2280,10 @@
         <v>0.4826388888888889</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="4">
         <v>0.30208333333333331</v>
@@ -2161,7 +2292,7 @@
         <v>0.4236111111111111</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L6" s="10"/>
       <c r="P6" s="11"/>
@@ -2169,7 +2300,7 @@
     </row>
     <row r="7" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="8">
         <v>0.48958333333333331</v>
@@ -2178,7 +2309,7 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L7" s="10"/>
       <c r="P7" s="11"/>
@@ -2186,7 +2317,7 @@
     </row>
     <row r="8" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="7">
         <v>7.9861111111111105E-2</v>
@@ -2195,7 +2326,7 @@
         <v>0.11805555555555557</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L8" s="10"/>
       <c r="P8" s="11"/>
@@ -2203,7 +2334,7 @@
     </row>
     <row r="9" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="7">
         <v>0.125</v>
@@ -2212,7 +2343,7 @@
         <v>0.16319444444444445</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L9" s="10"/>
       <c r="P9" s="11"/>
@@ -2220,7 +2351,7 @@
     </row>
     <row r="10" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="7">
         <v>0.17013888888888887</v>
@@ -2229,7 +2360,7 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L10" s="10"/>
       <c r="P10" s="11"/>
@@ -2237,7 +2368,7 @@
     </row>
     <row r="11" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="7">
         <v>0.35416666666666669</v>
@@ -2246,7 +2377,7 @@
         <v>0.41319444444444442</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
@@ -2258,7 +2389,7 @@
     </row>
     <row r="12" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="7">
         <v>0.4201388888888889</v>
@@ -2267,7 +2398,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -2279,7 +2410,7 @@
     </row>
     <row r="13" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="7">
         <v>6.25E-2</v>
@@ -2288,7 +2419,7 @@
         <v>0.12152777777777778</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
@@ -2300,7 +2431,7 @@
     </row>
     <row r="14" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="7">
         <v>0.12847222222222224</v>
@@ -2309,7 +2440,7 @@
         <v>0.1875</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
@@ -2321,7 +2452,7 @@
     </row>
     <row r="15" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="7">
         <v>0.20833333333333334</v>
@@ -2330,7 +2461,7 @@
         <v>0.2673611111111111</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
@@ -2342,7 +2473,7 @@
     </row>
     <row r="16" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="7">
         <v>0.33333333333333331</v>
@@ -2351,7 +2482,7 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
@@ -2363,7 +2494,7 @@
     </row>
     <row r="17" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="7">
         <v>0.17013888888888887</v>
@@ -2372,7 +2503,7 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
@@ -2384,7 +2515,7 @@
     </row>
     <row r="18" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="7">
         <v>0.23611111111111113</v>
@@ -2393,7 +2524,7 @@
         <v>0.2951388888888889</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
@@ -2405,7 +2536,7 @@
     </row>
     <row r="19" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="7">
         <v>0.30208333333333331</v>
@@ -2414,7 +2545,7 @@
         <v>0.3611111111111111</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
@@ -2426,7 +2557,7 @@
     </row>
     <row r="20" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="7">
         <v>0.36805555555555558</v>
@@ -2435,7 +2566,7 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
@@ -2447,7 +2578,7 @@
     </row>
     <row r="21" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="7">
         <v>0.33333333333333331</v>
@@ -2456,7 +2587,7 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
@@ -2468,7 +2599,7 @@
     </row>
     <row r="22" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="7">
         <v>0.17013888888888887</v>
@@ -2477,7 +2608,7 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
@@ -2489,7 +2620,7 @@
     </row>
     <row r="23" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="7">
         <v>0.33333333333333331</v>
@@ -2498,7 +2629,7 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -2510,7 +2641,7 @@
     </row>
     <row r="24" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="7">
         <v>0.17013888888888887</v>
@@ -2519,7 +2650,7 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -2531,7 +2662,7 @@
     </row>
     <row r="25" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="7">
         <v>6.25E-2</v>
@@ -2540,7 +2671,7 @@
         <v>0.18402777777777779</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -2552,7 +2683,7 @@
     </row>
     <row r="26" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="7">
         <v>0.30208333333333331</v>
@@ -2561,7 +2692,7 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>

--- a/Testing data.xlsx
+++ b/Testing data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cs 2020 Summer\department-course-scheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FB5E7D-7E78-4AF6-9859-84506818250A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3070E87C-99EA-44DE-A15C-52985AB60680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CanTeach" sheetId="1" r:id="rId1"/>
@@ -645,7 +645,7 @@
       </c>
       <c r="B2">
         <f ca="1">MOD(INT(RAND()*100),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:H2" ca="1" si="0">MOD(INT(RAND()*100),2)</f>
@@ -657,19 +657,19 @@
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -682,15 +682,15 @@
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
@@ -702,7 +702,7 @@
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -711,7 +711,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
@@ -719,23 +719,23 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <f ca="1">MOD(INT(RAND()*100),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -756,7 +756,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
@@ -781,11 +781,11 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
@@ -793,15 +793,15 @@
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f ca="1">MOD(INT(RAND()*100),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -840,7 +840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCE1BA5-4E35-4BCB-B104-2CE874789A6D}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -883,11 +883,11 @@
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
@@ -895,11 +895,11 @@
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -920,7 +920,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
@@ -928,11 +928,11 @@
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -953,11 +953,11 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
@@ -974,19 +974,19 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
@@ -1007,11 +1007,11 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
@@ -1019,15 +1019,15 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
@@ -1040,11 +1040,11 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
@@ -1052,19 +1052,19 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1105,11 +1105,11 @@
       </c>
       <c r="C2">
         <f ca="1">SUM(D2:Y2)*B2</f>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(0,3)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <f ca="1">ABS(D2-1)</f>
@@ -1125,15 +1125,15 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C8" ca="1" si="0">SUM(D3:Y3)*B3</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D8" ca="1" si="1">RANDBETWEEN(0,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E8" ca="1" si="2">ABS(D3-1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1145,15 +1145,15 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1165,15 +1165,15 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <f ca="1">ABS(D5-1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1185,15 +1185,15 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <f ca="1">ABS(D6-1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1205,15 +1205,15 @@
       </c>
       <c r="C7">
         <f ca="1">SUM(D7:Y7)*B7</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1225,15 +1225,15 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1415,7 +1415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709CA693-7B71-4760-95D6-DBE94D9FE574}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>

--- a/Testing data.xlsx
+++ b/Testing data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cs 2020 Summer\department-course-scheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3070E87C-99EA-44DE-A15C-52985AB60680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FD9BC5-9442-4033-962D-FEE1BF3AF008}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14970" yWindow="6720" windowWidth="12645" windowHeight="7365" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CanTeach" sheetId="1" r:id="rId1"/>
@@ -79,9 +79,6 @@
     <t>MaxUnit</t>
   </si>
   <si>
-    <t>UnitSum</t>
-  </si>
-  <si>
     <t>Course 0</t>
   </si>
   <si>
@@ -200,6 +197,9 @@
   </si>
   <si>
     <t>Morning</t>
+  </si>
+  <si>
+    <t>Must Offer</t>
   </si>
 </sst>
 </file>
@@ -611,14 +611,14 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -641,11 +641,11 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <f ca="1">MOD(INT(RAND()*100),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:H2" ca="1" si="0">MOD(INT(RAND()*100),2)</f>
@@ -665,7 +665,7 @@
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
@@ -686,7 +686,7 @@
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="1"/>
@@ -702,7 +702,7 @@
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -731,11 +731,11 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -744,11 +744,11 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
@@ -760,11 +760,11 @@
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
@@ -777,23 +777,23 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <f ca="1">MOD(INT(RAND()*100),2)</f>
@@ -801,7 +801,7 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -840,15 +840,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCE1BA5-4E35-4BCB-B104-2CE874789A6D}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -871,15 +871,15 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <f ca="1">MOD(INT(RAND()*100),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:H2" ca="1" si="0">MOD(INT(RAND()*100),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
@@ -887,7 +887,7 @@
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
@@ -899,7 +899,7 @@
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -916,11 +916,11 @@
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
@@ -932,7 +932,7 @@
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -945,7 +945,7 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
@@ -953,15 +953,15 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
@@ -978,15 +978,15 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
@@ -994,11 +994,11 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1007,23 +1007,23 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
@@ -1076,36 +1076,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55087B8-EDE9-4531-8D48-791EBDB20673}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>8</v>
       </c>
       <c r="C2">
-        <f ca="1">SUM(D2:Y2)*B2</f>
-        <v>24</v>
+        <f ca="1">MOD(INT(RAND()*100),2)</f>
+        <v>1</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(0,3)</f>
@@ -1124,12 +1127,12 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C8" ca="1" si="0">SUM(D3:Y3)*B3</f>
-        <v>12</v>
+        <f t="shared" ref="C3:C8" ca="1" si="0">MOD(INT(RAND()*100),2)</f>
+        <v>1</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D8" ca="1" si="1">RANDBETWEEN(0,3)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E8" ca="1" si="2">ABS(D3-1)</f>
@@ -1144,16 +1147,16 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <f ca="1">MOD(INT(RAND()*100),2)</f>
+        <v>0</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1165,7 +1168,7 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
@@ -1185,7 +1188,7 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
@@ -1204,8 +1207,8 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <f ca="1">SUM(D7:Y7)*B7</f>
-        <v>20</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
@@ -1225,7 +1228,7 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
@@ -1261,51 +1264,51 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>44</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>45</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>47</v>
-      </c>
-      <c r="K1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>16</v>
       </c>
       <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" t="s">
         <v>49</v>
       </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" t="s">
-        <v>50</v>
-      </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1316,13 +1319,13 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
         <v>51</v>
-      </c>
-      <c r="H3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1333,16 +1336,16 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" t="s">
         <v>51</v>
-      </c>
-      <c r="E4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1353,16 +1356,16 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
         <v>51</v>
       </c>
-      <c r="F5" t="s">
-        <v>52</v>
-      </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1373,13 +1376,13 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s">
         <v>52</v>
-      </c>
-      <c r="H6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1390,19 +1393,19 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
         <v>49</v>
       </c>
-      <c r="F7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>50</v>
       </c>
-      <c r="I7" t="s">
-        <v>51</v>
-      </c>
       <c r="K7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1427,25 +1430,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>39</v>
-      </c>
       <c r="F1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2122,22 +2125,22 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
@@ -2149,7 +2152,7 @@
     </row>
     <row r="2" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="7">
         <v>0.35416666666666669</v>
@@ -2158,10 +2161,10 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="4">
         <v>0.35416666666666669</v>
@@ -2170,7 +2173,7 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
@@ -2181,7 +2184,7 @@
     </row>
     <row r="3" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="7">
         <v>7.9861111111111105E-2</v>
@@ -2190,10 +2193,10 @@
         <v>0.11805555555555557</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="4">
         <v>6.25E-2</v>
@@ -2202,7 +2205,7 @@
         <v>0.18402777777777779</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
@@ -2213,7 +2216,7 @@
     </row>
     <row r="4" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="7">
         <v>0.35416666666666669</v>
@@ -2222,10 +2225,10 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="4">
         <v>7.9861111111111105E-2</v>
@@ -2234,7 +2237,7 @@
         <v>0.20138888888888887</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L4" s="10"/>
       <c r="P4" s="11"/>
@@ -2242,7 +2245,7 @@
     </row>
     <row r="5" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="7">
         <v>0.39930555555555558</v>
@@ -2251,10 +2254,10 @@
         <v>0.4375</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="4">
         <v>0.125</v>
@@ -2263,7 +2266,7 @@
         <v>0.24652777777777779</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L5" s="10"/>
       <c r="P5" s="11"/>
@@ -2271,7 +2274,7 @@
     </row>
     <row r="6" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="7">
         <v>0.44444444444444442</v>
@@ -2280,10 +2283,10 @@
         <v>0.4826388888888889</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" s="4">
         <v>0.30208333333333331</v>
@@ -2292,7 +2295,7 @@
         <v>0.4236111111111111</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L6" s="10"/>
       <c r="P6" s="11"/>
@@ -2300,7 +2303,7 @@
     </row>
     <row r="7" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="8">
         <v>0.48958333333333331</v>
@@ -2309,7 +2312,7 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L7" s="10"/>
       <c r="P7" s="11"/>
@@ -2317,7 +2320,7 @@
     </row>
     <row r="8" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="7">
         <v>7.9861111111111105E-2</v>
@@ -2326,7 +2329,7 @@
         <v>0.11805555555555557</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L8" s="10"/>
       <c r="P8" s="11"/>
@@ -2334,7 +2337,7 @@
     </row>
     <row r="9" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="7">
         <v>0.125</v>
@@ -2343,7 +2346,7 @@
         <v>0.16319444444444445</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9" s="10"/>
       <c r="P9" s="11"/>
@@ -2351,7 +2354,7 @@
     </row>
     <row r="10" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="7">
         <v>0.17013888888888887</v>
@@ -2360,7 +2363,7 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L10" s="10"/>
       <c r="P10" s="11"/>
@@ -2368,7 +2371,7 @@
     </row>
     <row r="11" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="7">
         <v>0.35416666666666669</v>
@@ -2377,7 +2380,7 @@
         <v>0.41319444444444442</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
@@ -2389,7 +2392,7 @@
     </row>
     <row r="12" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="7">
         <v>0.4201388888888889</v>
@@ -2398,7 +2401,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -2410,7 +2413,7 @@
     </row>
     <row r="13" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="7">
         <v>6.25E-2</v>
@@ -2419,7 +2422,7 @@
         <v>0.12152777777777778</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
@@ -2431,7 +2434,7 @@
     </row>
     <row r="14" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="7">
         <v>0.12847222222222224</v>
@@ -2440,7 +2443,7 @@
         <v>0.1875</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
@@ -2452,7 +2455,7 @@
     </row>
     <row r="15" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="7">
         <v>0.20833333333333334</v>
@@ -2461,7 +2464,7 @@
         <v>0.2673611111111111</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
@@ -2473,7 +2476,7 @@
     </row>
     <row r="16" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="7">
         <v>0.33333333333333331</v>
@@ -2482,7 +2485,7 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
@@ -2494,7 +2497,7 @@
     </row>
     <row r="17" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="7">
         <v>0.17013888888888887</v>
@@ -2503,7 +2506,7 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
@@ -2515,7 +2518,7 @@
     </row>
     <row r="18" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="7">
         <v>0.23611111111111113</v>
@@ -2524,7 +2527,7 @@
         <v>0.2951388888888889</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
@@ -2536,7 +2539,7 @@
     </row>
     <row r="19" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="7">
         <v>0.30208333333333331</v>
@@ -2545,7 +2548,7 @@
         <v>0.3611111111111111</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
@@ -2557,7 +2560,7 @@
     </row>
     <row r="20" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="7">
         <v>0.36805555555555558</v>
@@ -2566,7 +2569,7 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
@@ -2578,7 +2581,7 @@
     </row>
     <row r="21" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="7">
         <v>0.33333333333333331</v>
@@ -2587,7 +2590,7 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
@@ -2599,7 +2602,7 @@
     </row>
     <row r="22" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="7">
         <v>0.17013888888888887</v>
@@ -2608,7 +2611,7 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
@@ -2620,7 +2623,7 @@
     </row>
     <row r="23" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="7">
         <v>0.33333333333333331</v>
@@ -2629,7 +2632,7 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -2641,7 +2644,7 @@
     </row>
     <row r="24" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="7">
         <v>0.17013888888888887</v>
@@ -2650,7 +2653,7 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -2662,7 +2665,7 @@
     </row>
     <row r="25" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="7">
         <v>6.25E-2</v>
@@ -2671,7 +2674,7 @@
         <v>0.18402777777777779</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -2683,7 +2686,7 @@
     </row>
     <row r="26" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="7">
         <v>0.30208333333333331</v>
@@ -2692,7 +2695,7 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>

--- a/Testing data.xlsx
+++ b/Testing data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cs 2020 Summer\department-course-scheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FD9BC5-9442-4033-962D-FEE1BF3AF008}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BCCA46-0254-4437-89B4-887573041B51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14970" yWindow="6720" windowWidth="12645" windowHeight="7365" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CanTeach" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="55">
   <si>
     <t>Course 1</t>
   </si>
@@ -199,7 +199,10 @@
     <t>Morning</t>
   </si>
   <si>
-    <t>Must Offer</t>
+    <t>Fall_MustOffer</t>
+  </si>
+  <si>
+    <t>Spring_MustOffer</t>
   </si>
 </sst>
 </file>
@@ -614,9 +617,9 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -639,7 +642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -665,14 +668,14 @@
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -682,7 +685,7 @@
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="1"/>
@@ -694,18 +697,18 @@
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -715,7 +718,7 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
@@ -723,7 +726,7 @@
       </c>
       <c r="E4">
         <f ca="1">MOD(INT(RAND()*100),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
@@ -731,14 +734,14 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -748,11 +751,11 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
@@ -764,14 +767,14 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -781,11 +784,11 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
@@ -793,18 +796,18 @@
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f ca="1">MOD(INT(RAND()*100),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -844,9 +847,9 @@
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -869,21 +872,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2">
         <f ca="1">MOD(INT(RAND()*100),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:H2" ca="1" si="0">MOD(INT(RAND()*100),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
@@ -895,20 +898,20 @@
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:H7" ca="1" si="1">MOD(INT(RAND()*100),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="1"/>
@@ -916,7 +919,7 @@
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="1"/>
@@ -932,10 +935,10 @@
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -945,15 +948,15 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
@@ -961,14 +964,14 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -982,7 +985,7 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
@@ -998,20 +1001,20 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
@@ -1019,7 +1022,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
@@ -1031,16 +1034,16 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
@@ -1048,15 +1051,15 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
@@ -1064,7 +1067,7 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1074,32 +1077,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55087B8-EDE9-4531-8D48-791EBDB20673}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>53</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1107,19 +1114,23 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <f ca="1">MOD(INT(RAND()*100),2)</f>
+        <f ca="1">RANDBETWEEN(0,3)</f>
         <v>1</v>
       </c>
       <c r="D2">
-        <f ca="1">RANDBETWEEN(0,3)</f>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(0,C2)</f>
+        <v>1</v>
       </c>
       <c r="E2">
-        <f ca="1">ABS(D2-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <f ca="1">ABS(C2-1)</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f ca="1">RANDBETWEEN(0,E2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1127,19 +1138,23 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C8" ca="1" si="0">MOD(INT(RAND()*100),2)</f>
+        <f t="shared" ref="C3:C8" ca="1" si="0">RANDBETWEEN(0,3)</f>
         <v>1</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D8" ca="1" si="1">RANDBETWEEN(0,3)</f>
-        <v>0</v>
+        <f t="shared" ref="D3:D8" ca="1" si="1">RANDBETWEEN(0,C3)</f>
+        <v>1</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E8" ca="1" si="2">ABS(D3-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E3:E8" ca="1" si="2">ABS(C3-1)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f ca="1">RANDBETWEEN(0,E3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1147,19 +1162,23 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <f ca="1">MOD(INT(RAND()*100),2)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F3:F8" ca="1" si="3">RANDBETWEEN(0,E4)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1172,14 +1191,18 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <f ca="1">ABS(D5-1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1188,18 +1211,22 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="E6">
-        <f ca="1">ABS(D6-1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1208,18 +1235,22 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1237,6 +1268,10 @@
       <c r="E8">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1254,12 +1289,12 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -1291,7 +1326,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1311,7 +1346,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1328,7 +1363,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1348,7 +1383,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1368,7 +1403,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1385,7 +1420,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1422,13 +1457,13 @@
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>34</v>
       </c>
@@ -1451,7 +1486,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1474,7 +1509,7 @@
         <v>0.3923611111111111</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1497,7 +1532,7 @@
         <v>0.61805555555555558</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1520,7 +1555,7 @@
         <v>0.3923611111111111</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1543,7 +1578,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1566,7 +1601,7 @@
         <v>0.4826388888888889</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1589,7 +1624,7 @@
         <v>0.52777777777777779</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1612,7 +1647,7 @@
         <v>0.61805555555555558</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1635,7 +1670,7 @@
         <v>0.66319444444444442</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1658,7 +1693,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>0</v>
       </c>
@@ -1681,7 +1716,7 @@
         <v>0.91319444444444453</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>0</v>
       </c>
@@ -1704,7 +1739,7 @@
         <v>0.47916666666666669</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>0</v>
       </c>
@@ -1727,7 +1762,7 @@
         <v>0.62152777777777779</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>0</v>
       </c>
@@ -1750,7 +1785,7 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>0</v>
       </c>
@@ -1773,7 +1808,7 @@
         <v>0.76736111111111116</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>1</v>
       </c>
@@ -1796,7 +1831,7 @@
         <v>0.3923611111111111</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>1</v>
       </c>
@@ -1819,7 +1854,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>1</v>
       </c>
@@ -1842,7 +1877,7 @@
         <v>0.79513888888888884</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>1</v>
       </c>
@@ -1865,7 +1900,7 @@
         <v>0.86111111111111116</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>1</v>
       </c>
@@ -1888,7 +1923,7 @@
         <v>0.92708333333333337</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>1</v>
       </c>
@@ -1911,7 +1946,7 @@
         <v>0.3923611111111111</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>1</v>
       </c>
@@ -1934,7 +1969,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>0</v>
       </c>
@@ -1957,7 +1992,7 @@
         <v>0.3923611111111111</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>0</v>
       </c>
@@ -1980,7 +2015,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>0</v>
       </c>
@@ -2003,7 +2038,7 @@
         <v>0.68402777777777779</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <v>0</v>
       </c>
@@ -2026,7 +2061,7 @@
         <v>0.68402777777777779</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
         <v>0</v>
       </c>
@@ -2049,7 +2084,7 @@
         <v>0.92708333333333337</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <v>0</v>
       </c>
@@ -2072,7 +2107,7 @@
         <v>0.92708333333333337</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
         <v>0</v>
       </c>
@@ -2108,22 +2143,22 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="32.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="1" customWidth="1"/>
-    <col min="9" max="15" width="9.140625" style="1"/>
-    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="32.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="1"/>
+    <col min="6" max="6" width="32.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="1" customWidth="1"/>
+    <col min="9" max="15" width="9.1796875" style="1"/>
+    <col min="16" max="16" width="12.1796875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7265625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -2150,7 +2185,7 @@
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
     </row>
-    <row r="2" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="17" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -2182,7 +2217,7 @@
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
     </row>
-    <row r="3" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="17" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -2214,7 +2249,7 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="17" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,7 +2278,7 @@
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
     </row>
-    <row r="5" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="17" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -2272,7 +2307,7 @@
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
     </row>
-    <row r="6" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="17" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -2301,7 +2336,7 @@
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
     </row>
-    <row r="7" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="17" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -2318,7 +2353,7 @@
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
     </row>
-    <row r="8" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="17" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -2335,7 +2370,7 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
     </row>
-    <row r="9" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="17" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -2352,7 +2387,7 @@
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
     </row>
-    <row r="10" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="17" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -2369,7 +2404,7 @@
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
     </row>
-    <row r="11" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="17" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -2390,7 +2425,7 @@
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
     </row>
-    <row r="12" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="17" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -2411,7 +2446,7 @@
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
     </row>
-    <row r="13" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="17" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -2432,7 +2467,7 @@
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
     </row>
-    <row r="14" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="17" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -2453,7 +2488,7 @@
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
     </row>
-    <row r="15" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="17" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -2474,7 +2509,7 @@
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
     </row>
-    <row r="16" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="17" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -2495,7 +2530,7 @@
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
     </row>
-    <row r="17" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="17" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -2516,7 +2551,7 @@
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
     </row>
-    <row r="18" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="17" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -2537,7 +2572,7 @@
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
     </row>
-    <row r="19" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="17" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -2558,7 +2593,7 @@
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
     </row>
-    <row r="20" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="17" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -2579,7 +2614,7 @@
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
     </row>
-    <row r="21" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="17" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -2600,7 +2635,7 @@
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
     </row>
-    <row r="22" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="17" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -2621,7 +2656,7 @@
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
     </row>
-    <row r="23" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="17" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -2642,7 +2677,7 @@
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
     </row>
-    <row r="24" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="17" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -2663,7 +2698,7 @@
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
     </row>
-    <row r="25" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="17" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -2684,7 +2719,7 @@
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
     </row>
-    <row r="26" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="17" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,7 +2740,7 @@
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="K27" s="10"/>
@@ -2716,7 +2751,7 @@
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
     </row>
-    <row r="28" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="K28" s="10"/>
@@ -2727,7 +2762,7 @@
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
     </row>
-    <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="17" x14ac:dyDescent="0.35">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="K29" s="10"/>
@@ -2738,23 +2773,23 @@
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
     </row>
-    <row r="30" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="17" x14ac:dyDescent="0.35">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="17" x14ac:dyDescent="0.35">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="17" x14ac:dyDescent="0.35">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.35">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
     </row>
   </sheetData>

--- a/Testing data.xlsx
+++ b/Testing data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cs 2020 Summer\department-course-scheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BCCA46-0254-4437-89B4-887573041B51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53427629-1E1C-402F-B200-C252115DBEEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CanTeach" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="86">
   <si>
     <t>Course 1</t>
   </si>
@@ -203,6 +203,99 @@
   </si>
   <si>
     <t>Spring_MustOffer</t>
+  </si>
+  <si>
+    <t>08:30:00</t>
+  </si>
+  <si>
+    <t>13:55:00</t>
+  </si>
+  <si>
+    <t>09:35:00</t>
+  </si>
+  <si>
+    <t>10:40:00</t>
+  </si>
+  <si>
+    <t>11:45:00</t>
+  </si>
+  <si>
+    <t>15:00:00</t>
+  </si>
+  <si>
+    <t>16:05:00</t>
+  </si>
+  <si>
+    <t>10:05:00</t>
+  </si>
+  <si>
+    <t>13:30:00</t>
+  </si>
+  <si>
+    <t>15:05:00</t>
+  </si>
+  <si>
+    <t>17:00:00</t>
+  </si>
+  <si>
+    <t>08:00:00</t>
+  </si>
+  <si>
+    <t>17:40:00</t>
+  </si>
+  <si>
+    <t>19:15:00</t>
+  </si>
+  <si>
+    <t>20:50:00</t>
+  </si>
+  <si>
+    <t>09:25:00</t>
+  </si>
+  <si>
+    <t>14:50:00</t>
+  </si>
+  <si>
+    <t>10:30:00</t>
+  </si>
+  <si>
+    <t>11:35:00</t>
+  </si>
+  <si>
+    <t>12:40:00</t>
+  </si>
+  <si>
+    <t>15:55:00</t>
+  </si>
+  <si>
+    <t>21:55:00</t>
+  </si>
+  <si>
+    <t>11:30:00</t>
+  </si>
+  <si>
+    <t>14:55:00</t>
+  </si>
+  <si>
+    <t>16:30:00</t>
+  </si>
+  <si>
+    <t>18:25:00</t>
+  </si>
+  <si>
+    <t>17:30:00</t>
+  </si>
+  <si>
+    <t>19:05:00</t>
+  </si>
+  <si>
+    <t>20:40:00</t>
+  </si>
+  <si>
+    <t>22:15:00</t>
+  </si>
+  <si>
+    <t>16:25:00</t>
   </si>
 </sst>
 </file>
@@ -652,11 +745,11 @@
       </c>
       <c r="C2">
         <f t="shared" ref="C2:H2" ca="1" si="0">MOD(INT(RAND()*100),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
@@ -664,7 +757,7 @@
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
@@ -672,7 +765,7 @@
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -685,19 +778,19 @@
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="1"/>
@@ -722,7 +815,7 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <f ca="1">MOD(INT(RAND()*100),2)</f>
@@ -738,7 +831,7 @@
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -747,7 +840,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
@@ -759,11 +852,11 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
@@ -771,7 +864,7 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -788,19 +881,19 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <f ca="1">MOD(INT(RAND()*100),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
@@ -890,19 +983,19 @@
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -911,31 +1004,31 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:H7" ca="1" si="1">MOD(INT(RAND()*100),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -952,15 +1045,15 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
@@ -968,7 +1061,7 @@
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -977,7 +1070,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
@@ -997,11 +1090,11 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1014,7 +1107,7 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
@@ -1030,11 +1123,11 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -1055,11 +1148,11 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
@@ -1067,7 +1160,7 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1079,7 +1172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55087B8-EDE9-4531-8D48-791EBDB20673}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -1119,7 +1212,7 @@
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(0,C2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <f ca="1">ABS(C2-1)</f>
@@ -1139,15 +1232,15 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C8" ca="1" si="0">RANDBETWEEN(0,3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D8" ca="1" si="1">RANDBETWEEN(0,C3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E8" ca="1" si="2">ABS(C3-1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <f ca="1">RANDBETWEEN(0,E3)</f>
@@ -1163,19 +1256,19 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F3:F8" ca="1" si="3">RANDBETWEEN(0,E4)</f>
-        <v>2</v>
+        <f t="shared" ref="F4:F8" ca="1" si="3">RANDBETWEEN(0,E4)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1235,15 +1328,15 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="3"/>
@@ -1259,7 +1352,7 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
@@ -1453,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709CA693-7B71-4760-95D6-DBE94D9FE574}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1502,11 +1595,11 @@
       <c r="E2" s="10">
         <v>1</v>
       </c>
-      <c r="F2" s="11">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="G2" s="11">
-        <v>0.3923611111111111</v>
+      <c r="F2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -1525,11 +1618,11 @@
       <c r="E3" s="10">
         <v>1</v>
       </c>
-      <c r="F3" s="11">
-        <v>0.57986111111111105</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0.61805555555555558</v>
+      <c r="F3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -1548,11 +1641,11 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="11">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0.3923611111111111</v>
+      <c r="F4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -1571,11 +1664,11 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="11">
-        <v>0.39930555555555558</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0.4375</v>
+      <c r="F5" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -1594,11 +1687,11 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="11">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0.4826388888888889</v>
+      <c r="F6" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -1617,11 +1710,11 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="11">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0.52777777777777779</v>
+      <c r="F7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -1640,11 +1733,11 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="11">
-        <v>0.57986111111111105</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0.61805555555555558</v>
+      <c r="F8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -1663,11 +1756,11 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="11">
-        <v>0.625</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0.66319444444444442</v>
+      <c r="F9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -1686,11 +1779,11 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="11">
-        <v>0.67013888888888884</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0.70833333333333337</v>
+      <c r="F10" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -1709,11 +1802,11 @@
       <c r="E11" s="10">
         <v>0</v>
       </c>
-      <c r="F11" s="11">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0.91319444444444453</v>
+      <c r="F11" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -1732,11 +1825,11 @@
       <c r="E12" s="10">
         <v>0</v>
       </c>
-      <c r="F12" s="11">
-        <v>0.4201388888888889</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0.47916666666666669</v>
+      <c r="F12" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -1755,11 +1848,11 @@
       <c r="E13" s="10">
         <v>0</v>
       </c>
-      <c r="F13" s="11">
-        <v>0.5625</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0.62152777777777779</v>
+      <c r="F13" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -1778,11 +1871,11 @@
       <c r="E14" s="10">
         <v>0</v>
       </c>
-      <c r="F14" s="11">
-        <v>0.62847222222222221</v>
-      </c>
-      <c r="G14" s="11">
-        <v>0.6875</v>
+      <c r="F14" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -1801,11 +1894,11 @@
       <c r="E15" s="10">
         <v>0</v>
       </c>
-      <c r="F15" s="11">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0.76736111111111116</v>
+      <c r="F15" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -1824,11 +1917,11 @@
       <c r="E16" s="10">
         <v>0</v>
       </c>
-      <c r="F16" s="11">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0.3923611111111111</v>
+      <c r="F16" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -1847,11 +1940,11 @@
       <c r="E17" s="10">
         <v>0</v>
       </c>
-      <c r="F17" s="11">
-        <v>0.67013888888888884</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0.72916666666666663</v>
+      <c r="F17" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -1870,11 +1963,11 @@
       <c r="E18" s="10">
         <v>0</v>
       </c>
-      <c r="F18" s="11">
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="G18" s="11">
-        <v>0.79513888888888884</v>
+      <c r="F18" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -1893,11 +1986,11 @@
       <c r="E19" s="10">
         <v>0</v>
       </c>
-      <c r="F19" s="11">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="G19" s="11">
-        <v>0.86111111111111116</v>
+      <c r="F19" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -1916,11 +2009,11 @@
       <c r="E20" s="10">
         <v>0</v>
       </c>
-      <c r="F20" s="11">
-        <v>0.86805555555555547</v>
-      </c>
-      <c r="G20" s="11">
-        <v>0.92708333333333337</v>
+      <c r="F20" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -1939,11 +2032,11 @@
       <c r="E21" s="10">
         <v>1</v>
       </c>
-      <c r="F21" s="11">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G21" s="11">
-        <v>0.3923611111111111</v>
+      <c r="F21" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -1962,11 +2055,11 @@
       <c r="E22" s="10">
         <v>1</v>
       </c>
-      <c r="F22" s="11">
-        <v>0.67013888888888884</v>
-      </c>
-      <c r="G22" s="11">
-        <v>0.72916666666666663</v>
+      <c r="F22" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -1985,11 +2078,11 @@
       <c r="E23" s="10">
         <v>1</v>
       </c>
-      <c r="F23" s="11">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G23" s="11">
-        <v>0.3923611111111111</v>
+      <c r="F23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -2008,11 +2101,11 @@
       <c r="E24" s="10">
         <v>1</v>
       </c>
-      <c r="F24" s="11">
-        <v>0.67013888888888884</v>
-      </c>
-      <c r="G24" s="11">
-        <v>0.72916666666666663</v>
+      <c r="F24" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -2031,11 +2124,11 @@
       <c r="E25" s="10">
         <v>0</v>
       </c>
-      <c r="F25" s="11">
-        <v>0.5625</v>
-      </c>
-      <c r="G25" s="11">
-        <v>0.68402777777777779</v>
+      <c r="F25" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -2054,11 +2147,11 @@
       <c r="E26" s="10">
         <v>0</v>
       </c>
-      <c r="F26" s="11">
-        <v>0.5625</v>
-      </c>
-      <c r="G26" s="11">
-        <v>0.68402777777777779</v>
+      <c r="F26" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -2077,11 +2170,11 @@
       <c r="E27" s="10">
         <v>0</v>
       </c>
-      <c r="F27" s="11">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="G27" s="11">
-        <v>0.92708333333333337</v>
+      <c r="F27" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -2100,11 +2193,11 @@
       <c r="E28" s="10">
         <v>0</v>
       </c>
-      <c r="F28" s="11">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="G28" s="11">
-        <v>0.92708333333333337</v>
+      <c r="F28" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -2123,11 +2216,11 @@
       <c r="E29" s="10">
         <v>0</v>
       </c>
-      <c r="F29" s="11">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="G29" s="11">
-        <v>0.92708333333333337</v>
+      <c r="F29" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Testing data.xlsx
+++ b/Testing data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cs 2020 Summer\department-course-scheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BCCA46-0254-4437-89B4-887573041B51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F86C493-ADB9-4482-902C-FD5C57F388CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CanTeach" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="93">
   <si>
     <t>Course 1</t>
   </si>
@@ -203,12 +203,129 @@
   </si>
   <si>
     <t>Spring_MustOffer</t>
+  </si>
+  <si>
+    <t>08:30:00</t>
+  </si>
+  <si>
+    <t>13:55:00</t>
+  </si>
+  <si>
+    <t>09:35:00</t>
+  </si>
+  <si>
+    <t>10:40:00</t>
+  </si>
+  <si>
+    <t>11:45:00</t>
+  </si>
+  <si>
+    <t>15:00:00</t>
+  </si>
+  <si>
+    <t>16:05:00</t>
+  </si>
+  <si>
+    <t>10:05:00</t>
+  </si>
+  <si>
+    <t>13:30:00</t>
+  </si>
+  <si>
+    <t>15:05:00</t>
+  </si>
+  <si>
+    <t>17:00:00</t>
+  </si>
+  <si>
+    <t>08:00:00</t>
+  </si>
+  <si>
+    <t>17:40:00</t>
+  </si>
+  <si>
+    <t>19:15:00</t>
+  </si>
+  <si>
+    <t>20:50:00</t>
+  </si>
+  <si>
+    <t>09:25:00</t>
+  </si>
+  <si>
+    <t>14:50:00</t>
+  </si>
+  <si>
+    <t>10:30:00</t>
+  </si>
+  <si>
+    <t>11:35:00</t>
+  </si>
+  <si>
+    <t>12:40:00</t>
+  </si>
+  <si>
+    <t>15:55:00</t>
+  </si>
+  <si>
+    <t>21:55:00</t>
+  </si>
+  <si>
+    <t>11:30:00</t>
+  </si>
+  <si>
+    <t>14:55:00</t>
+  </si>
+  <si>
+    <t>16:30:00</t>
+  </si>
+  <si>
+    <t>18:25:00</t>
+  </si>
+  <si>
+    <t>17:30:00</t>
+  </si>
+  <si>
+    <t>19:05:00</t>
+  </si>
+  <si>
+    <t>20:40:00</t>
+  </si>
+  <si>
+    <t>22:15:00</t>
+  </si>
+  <si>
+    <t>16:25:00</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>11:25:00</t>
+  </si>
+  <si>
+    <t>16:50:00</t>
+  </si>
+  <si>
+    <t>17:55:00</t>
+  </si>
+  <si>
+    <t>22:10:00</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="h:mm:ss;@"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -268,7 +385,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -300,11 +417,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -331,6 +463,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,11 +795,11 @@
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
@@ -668,7 +807,7 @@
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
@@ -681,11 +820,11 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:H6" ca="1" si="1">MOD(INT(RAND()*100),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="1"/>
@@ -714,7 +853,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
@@ -726,7 +865,7 @@
       </c>
       <c r="E4">
         <f ca="1">MOD(INT(RAND()*100),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
@@ -734,11 +873,11 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -747,7 +886,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
@@ -755,7 +894,7 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
@@ -767,7 +906,7 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
@@ -792,11 +931,11 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <f ca="1">MOD(INT(RAND()*100),2)</f>
@@ -804,7 +943,7 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -878,19 +1017,19 @@
       </c>
       <c r="B2">
         <f ca="1">MOD(INT(RAND()*100),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:H2" ca="1" si="0">MOD(INT(RAND()*100),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
@@ -902,7 +1041,7 @@
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -919,23 +1058,23 @@
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -952,7 +1091,7 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
@@ -960,7 +1099,7 @@
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
@@ -981,7 +1120,7 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
@@ -993,15 +1132,15 @@
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1010,15 +1149,15 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
@@ -1043,7 +1182,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
@@ -1051,7 +1190,7 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
@@ -1059,15 +1198,15 @@
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1077,36 +1216,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55087B8-EDE9-4531-8D48-791EBDB20673}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="10.54296875" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1114,23 +1256,26 @@
         <v>8</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <f ca="1">RANDBETWEEN(0,3)</f>
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <f ca="1">RANDBETWEEN(0,C2)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <f ca="1">ABS(C2-1)</f>
+        <f ca="1">RANDBETWEEN(0,D2)</f>
         <v>0</v>
       </c>
       <c r="F2">
-        <f ca="1">RANDBETWEEN(0,E2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <f ca="1">ABS(D2-1)</f>
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <f ca="1">RANDBETWEEN(0,F2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1138,23 +1283,26 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C8" ca="1" si="0">RANDBETWEEN(0,3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D8" ca="1" si="1">RANDBETWEEN(0,C3)</f>
+        <f t="shared" ref="D3:D8" ca="1" si="0">RANDBETWEEN(0,3)</f>
         <v>1</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E8" ca="1" si="2">ABS(C3-1)</f>
-        <v>0</v>
+        <f t="shared" ref="E3:E8" ca="1" si="1">RANDBETWEEN(0,D3)</f>
+        <v>1</v>
       </c>
       <c r="F3">
-        <f ca="1">RANDBETWEEN(0,E3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <f t="shared" ref="F3:F8" ca="1" si="2">ABS(D3-1)</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f ca="1">RANDBETWEEN(0,F3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1162,71 +1310,80 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G8" ca="1" si="3">RANDBETWEEN(0,F4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F6">
         <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
-      <c r="F4">
-        <f t="shared" ref="F3:F8" ca="1" si="3">RANDBETWEEN(0,E4)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
         <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1234,23 +1391,26 @@
         <v>4</v>
       </c>
       <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1258,20 +1418,23 @@
         <v>4</v>
       </c>
       <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1283,10 +1446,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FE03E8-5E32-411A-8E39-F9A87C02495E}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1294,7 +1457,7 @@
     <col min="3" max="3" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -1316,17 +1479,23 @@
       <c r="H1" t="s">
         <v>44</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>46</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M1" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1340,13 +1509,17 @@
         <v>50</v>
       </c>
       <c r="I2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1362,8 +1535,12 @@
       <c r="H3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I3" s="13"/>
+      <c r="M3" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1379,11 +1556,15 @@
       <c r="G4" t="s">
         <v>50</v>
       </c>
-      <c r="K4" t="s">
+      <c r="I4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M4" s="13"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1399,11 +1580,15 @@
       <c r="H5" t="s">
         <v>48</v>
       </c>
-      <c r="J5" t="s">
+      <c r="I5" s="13"/>
+      <c r="K5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M5" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1416,11 +1601,13 @@
       <c r="H6" t="s">
         <v>51</v>
       </c>
-      <c r="K6" t="s">
+      <c r="I6" s="13"/>
+      <c r="L6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1437,11 +1624,2996 @@
         <v>49</v>
       </c>
       <c r="I7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" t="s">
         <v>50</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>49</v>
       </c>
+      <c r="M7" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M16" s="13"/>
+    </row>
+    <row r="17" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M18" s="13"/>
+    </row>
+    <row r="19" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M19" s="13"/>
+    </row>
+    <row r="20" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M20" s="13"/>
+    </row>
+    <row r="21" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M21" s="13"/>
+    </row>
+    <row r="22" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M22" s="13"/>
+    </row>
+    <row r="23" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M23" s="13"/>
+    </row>
+    <row r="24" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M24" s="13"/>
+    </row>
+    <row r="25" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M25" s="13"/>
+    </row>
+    <row r="26" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M26" s="13"/>
+    </row>
+    <row r="27" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M27" s="13"/>
+    </row>
+    <row r="28" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M29" s="13"/>
+    </row>
+    <row r="30" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M30" s="13"/>
+    </row>
+    <row r="31" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M31" s="13"/>
+    </row>
+    <row r="32" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M32" s="13"/>
+    </row>
+    <row r="33" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M33" s="13"/>
+    </row>
+    <row r="34" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M34" s="13"/>
+    </row>
+    <row r="35" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M35" s="13"/>
+    </row>
+    <row r="36" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M36" s="13"/>
+    </row>
+    <row r="37" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M37" s="13"/>
+    </row>
+    <row r="38" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M38" s="13"/>
+    </row>
+    <row r="39" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M39" s="13"/>
+    </row>
+    <row r="40" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M40" s="13"/>
+    </row>
+    <row r="41" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M41" s="13"/>
+    </row>
+    <row r="42" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M42" s="13"/>
+    </row>
+    <row r="43" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M43" s="13"/>
+    </row>
+    <row r="44" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M44" s="13"/>
+    </row>
+    <row r="45" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M45" s="13"/>
+    </row>
+    <row r="46" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M46" s="13"/>
+    </row>
+    <row r="47" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M47" s="13"/>
+    </row>
+    <row r="48" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M48" s="13"/>
+    </row>
+    <row r="49" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M49" s="13"/>
+    </row>
+    <row r="50" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M50" s="13"/>
+    </row>
+    <row r="51" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M51" s="13"/>
+    </row>
+    <row r="52" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M52" s="13"/>
+    </row>
+    <row r="53" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M53" s="13"/>
+    </row>
+    <row r="54" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M54" s="13"/>
+    </row>
+    <row r="55" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M55" s="13"/>
+    </row>
+    <row r="56" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M56" s="13"/>
+    </row>
+    <row r="57" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M57" s="13"/>
+    </row>
+    <row r="58" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M58" s="13"/>
+    </row>
+    <row r="59" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M59" s="13"/>
+    </row>
+    <row r="60" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M60" s="13"/>
+    </row>
+    <row r="61" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M61" s="13"/>
+    </row>
+    <row r="62" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M62" s="13"/>
+    </row>
+    <row r="63" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M63" s="13"/>
+    </row>
+    <row r="64" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M64" s="13"/>
+    </row>
+    <row r="65" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M65" s="13"/>
+    </row>
+    <row r="66" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M66" s="13"/>
+    </row>
+    <row r="67" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M67" s="13"/>
+    </row>
+    <row r="68" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M68" s="13"/>
+    </row>
+    <row r="69" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M69" s="13"/>
+    </row>
+    <row r="70" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M70" s="13"/>
+    </row>
+    <row r="71" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M71" s="13"/>
+    </row>
+    <row r="72" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M72" s="13"/>
+    </row>
+    <row r="73" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M73" s="13"/>
+    </row>
+    <row r="74" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M74" s="13"/>
+    </row>
+    <row r="75" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M75" s="13"/>
+    </row>
+    <row r="76" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M76" s="13"/>
+    </row>
+    <row r="77" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M77" s="13"/>
+    </row>
+    <row r="78" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M78" s="13"/>
+    </row>
+    <row r="79" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M79" s="13"/>
+    </row>
+    <row r="80" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M80" s="13"/>
+    </row>
+    <row r="81" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M81" s="13"/>
+    </row>
+    <row r="82" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M82" s="13"/>
+    </row>
+    <row r="83" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M83" s="13"/>
+    </row>
+    <row r="84" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M84" s="13"/>
+    </row>
+    <row r="85" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M85" s="13"/>
+    </row>
+    <row r="86" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M86" s="13"/>
+    </row>
+    <row r="87" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M87" s="13"/>
+    </row>
+    <row r="88" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M88" s="13"/>
+    </row>
+    <row r="89" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M89" s="13"/>
+    </row>
+    <row r="90" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M90" s="13"/>
+    </row>
+    <row r="91" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M91" s="13"/>
+    </row>
+    <row r="92" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M92" s="13"/>
+    </row>
+    <row r="93" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M93" s="13"/>
+    </row>
+    <row r="94" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M94" s="13"/>
+    </row>
+    <row r="95" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M95" s="13"/>
+    </row>
+    <row r="96" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M96" s="13"/>
+    </row>
+    <row r="97" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M97" s="13"/>
+    </row>
+    <row r="98" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M98" s="13"/>
+    </row>
+    <row r="99" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M99" s="13"/>
+    </row>
+    <row r="100" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M100" s="13"/>
+    </row>
+    <row r="101" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M101" s="13"/>
+    </row>
+    <row r="102" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M102" s="13"/>
+    </row>
+    <row r="103" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M103" s="13"/>
+    </row>
+    <row r="104" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M104" s="13"/>
+    </row>
+    <row r="105" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M105" s="13"/>
+    </row>
+    <row r="106" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M106" s="13"/>
+    </row>
+    <row r="107" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M107" s="13"/>
+    </row>
+    <row r="108" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M108" s="13"/>
+    </row>
+    <row r="109" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M109" s="13"/>
+    </row>
+    <row r="110" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M110" s="13"/>
+    </row>
+    <row r="111" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M111" s="13"/>
+    </row>
+    <row r="112" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M112" s="13"/>
+    </row>
+    <row r="113" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M113" s="13"/>
+    </row>
+    <row r="114" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M114" s="13"/>
+    </row>
+    <row r="115" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M115" s="13"/>
+    </row>
+    <row r="116" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M116" s="13"/>
+    </row>
+    <row r="117" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M117" s="13"/>
+    </row>
+    <row r="118" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M118" s="13"/>
+    </row>
+    <row r="119" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M119" s="13"/>
+    </row>
+    <row r="120" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M120" s="13"/>
+    </row>
+    <row r="121" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M121" s="13"/>
+    </row>
+    <row r="122" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M122" s="13"/>
+    </row>
+    <row r="123" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M123" s="13"/>
+    </row>
+    <row r="124" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M124" s="13"/>
+    </row>
+    <row r="125" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M125" s="13"/>
+    </row>
+    <row r="126" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M126" s="13"/>
+    </row>
+    <row r="127" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M127" s="13"/>
+    </row>
+    <row r="128" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M128" s="13"/>
+    </row>
+    <row r="129" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M129" s="13"/>
+    </row>
+    <row r="130" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M130" s="13"/>
+    </row>
+    <row r="131" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M131" s="13"/>
+    </row>
+    <row r="132" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M132" s="13"/>
+    </row>
+    <row r="133" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M133" s="13"/>
+    </row>
+    <row r="134" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M134" s="13"/>
+    </row>
+    <row r="135" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M135" s="13"/>
+    </row>
+    <row r="136" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M136" s="13"/>
+    </row>
+    <row r="137" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M137" s="13"/>
+    </row>
+    <row r="138" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M138" s="13"/>
+    </row>
+    <row r="139" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M139" s="13"/>
+    </row>
+    <row r="140" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M140" s="13"/>
+    </row>
+    <row r="141" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M141" s="13"/>
+    </row>
+    <row r="142" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M142" s="13"/>
+    </row>
+    <row r="143" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M143" s="13"/>
+    </row>
+    <row r="144" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M144" s="13"/>
+    </row>
+    <row r="145" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M145" s="13"/>
+    </row>
+    <row r="146" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M146" s="13"/>
+    </row>
+    <row r="147" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M147" s="13"/>
+    </row>
+    <row r="148" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M148" s="13"/>
+    </row>
+    <row r="149" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M149" s="13"/>
+    </row>
+    <row r="150" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M150" s="13"/>
+    </row>
+    <row r="151" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M151" s="13"/>
+    </row>
+    <row r="152" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M152" s="13"/>
+    </row>
+    <row r="153" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M153" s="13"/>
+    </row>
+    <row r="154" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M154" s="13"/>
+    </row>
+    <row r="155" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M155" s="13"/>
+    </row>
+    <row r="156" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M156" s="13"/>
+    </row>
+    <row r="157" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M157" s="13"/>
+    </row>
+    <row r="158" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M158" s="13"/>
+    </row>
+    <row r="159" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M159" s="13"/>
+    </row>
+    <row r="160" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M160" s="13"/>
+    </row>
+    <row r="161" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M161" s="13"/>
+    </row>
+    <row r="162" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M162" s="13"/>
+    </row>
+    <row r="163" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M163" s="13"/>
+    </row>
+    <row r="164" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M164" s="13"/>
+    </row>
+    <row r="165" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M165" s="13"/>
+    </row>
+    <row r="166" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M166" s="13"/>
+    </row>
+    <row r="167" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M167" s="13"/>
+    </row>
+    <row r="168" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M168" s="13"/>
+    </row>
+    <row r="169" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M169" s="13"/>
+    </row>
+    <row r="170" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M170" s="13"/>
+    </row>
+    <row r="171" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M171" s="13"/>
+    </row>
+    <row r="172" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M172" s="13"/>
+    </row>
+    <row r="173" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M173" s="13"/>
+    </row>
+    <row r="174" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M174" s="13"/>
+    </row>
+    <row r="175" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M175" s="13"/>
+    </row>
+    <row r="176" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M176" s="13"/>
+    </row>
+    <row r="177" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M177" s="13"/>
+    </row>
+    <row r="178" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M178" s="13"/>
+    </row>
+    <row r="179" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M179" s="13"/>
+    </row>
+    <row r="180" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M180" s="13"/>
+    </row>
+    <row r="181" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M181" s="13"/>
+    </row>
+    <row r="182" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M182" s="13"/>
+    </row>
+    <row r="183" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M183" s="13"/>
+    </row>
+    <row r="184" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M184" s="13"/>
+    </row>
+    <row r="185" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M185" s="13"/>
+    </row>
+    <row r="186" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M186" s="13"/>
+    </row>
+    <row r="187" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M187" s="13"/>
+    </row>
+    <row r="188" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M188" s="13"/>
+    </row>
+    <row r="189" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M189" s="13"/>
+    </row>
+    <row r="190" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M190" s="13"/>
+    </row>
+    <row r="191" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M191" s="13"/>
+    </row>
+    <row r="192" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M192" s="13"/>
+    </row>
+    <row r="193" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M193" s="13"/>
+    </row>
+    <row r="194" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M194" s="13"/>
+    </row>
+    <row r="195" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M195" s="13"/>
+    </row>
+    <row r="196" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M196" s="13"/>
+    </row>
+    <row r="197" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M197" s="13"/>
+    </row>
+    <row r="198" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M198" s="13"/>
+    </row>
+    <row r="199" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M199" s="13"/>
+    </row>
+    <row r="200" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M200" s="13"/>
+    </row>
+    <row r="201" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M201" s="13"/>
+    </row>
+    <row r="202" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M202" s="13"/>
+    </row>
+    <row r="203" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M203" s="13"/>
+    </row>
+    <row r="204" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M204" s="13"/>
+    </row>
+    <row r="205" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M205" s="13"/>
+    </row>
+    <row r="206" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M206" s="13"/>
+    </row>
+    <row r="207" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M207" s="13"/>
+    </row>
+    <row r="208" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M208" s="13"/>
+    </row>
+    <row r="209" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M209" s="13"/>
+    </row>
+    <row r="210" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M210" s="13"/>
+    </row>
+    <row r="211" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M211" s="13"/>
+    </row>
+    <row r="212" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M212" s="13"/>
+    </row>
+    <row r="213" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M213" s="13"/>
+    </row>
+    <row r="214" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M214" s="13"/>
+    </row>
+    <row r="215" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M215" s="13"/>
+    </row>
+    <row r="216" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M216" s="13"/>
+    </row>
+    <row r="217" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M217" s="13"/>
+    </row>
+    <row r="218" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M218" s="13"/>
+    </row>
+    <row r="219" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M219" s="13"/>
+    </row>
+    <row r="220" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M220" s="13"/>
+    </row>
+    <row r="221" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M221" s="13"/>
+    </row>
+    <row r="222" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M222" s="13"/>
+    </row>
+    <row r="223" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M223" s="13"/>
+    </row>
+    <row r="224" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M224" s="13"/>
+    </row>
+    <row r="225" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M225" s="13"/>
+    </row>
+    <row r="226" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M226" s="13"/>
+    </row>
+    <row r="227" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M227" s="13"/>
+    </row>
+    <row r="228" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M228" s="13"/>
+    </row>
+    <row r="229" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M229" s="13"/>
+    </row>
+    <row r="230" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M230" s="13"/>
+    </row>
+    <row r="231" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M231" s="13"/>
+    </row>
+    <row r="232" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M232" s="13"/>
+    </row>
+    <row r="233" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M233" s="13"/>
+    </row>
+    <row r="234" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M234" s="13"/>
+    </row>
+    <row r="235" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M235" s="13"/>
+    </row>
+    <row r="236" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M236" s="13"/>
+    </row>
+    <row r="237" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M237" s="13"/>
+    </row>
+    <row r="238" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M238" s="13"/>
+    </row>
+    <row r="239" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M239" s="13"/>
+    </row>
+    <row r="240" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M240" s="13"/>
+    </row>
+    <row r="241" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M241" s="13"/>
+    </row>
+    <row r="242" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M242" s="13"/>
+    </row>
+    <row r="243" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M243" s="13"/>
+    </row>
+    <row r="244" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M244" s="13"/>
+    </row>
+    <row r="245" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M245" s="13"/>
+    </row>
+    <row r="246" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M246" s="13"/>
+    </row>
+    <row r="247" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M247" s="13"/>
+    </row>
+    <row r="248" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M248" s="13"/>
+    </row>
+    <row r="249" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M249" s="13"/>
+    </row>
+    <row r="250" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M250" s="13"/>
+    </row>
+    <row r="251" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M251" s="13"/>
+    </row>
+    <row r="252" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M252" s="13"/>
+    </row>
+    <row r="253" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M253" s="13"/>
+    </row>
+    <row r="254" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M254" s="13"/>
+    </row>
+    <row r="255" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M255" s="13"/>
+    </row>
+    <row r="256" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M256" s="13"/>
+    </row>
+    <row r="257" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M257" s="13"/>
+    </row>
+    <row r="258" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M258" s="13"/>
+    </row>
+    <row r="259" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M259" s="13"/>
+    </row>
+    <row r="260" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M260" s="13"/>
+    </row>
+    <row r="261" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M261" s="13"/>
+    </row>
+    <row r="262" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M262" s="13"/>
+    </row>
+    <row r="263" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M263" s="13"/>
+    </row>
+    <row r="264" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M264" s="13"/>
+    </row>
+    <row r="265" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M265" s="13"/>
+    </row>
+    <row r="266" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M266" s="13"/>
+    </row>
+    <row r="267" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M267" s="13"/>
+    </row>
+    <row r="268" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M268" s="13"/>
+    </row>
+    <row r="269" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M269" s="13"/>
+    </row>
+    <row r="270" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M270" s="13"/>
+    </row>
+    <row r="271" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M271" s="13"/>
+    </row>
+    <row r="272" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M272" s="13"/>
+    </row>
+    <row r="273" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M273" s="13"/>
+    </row>
+    <row r="274" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M274" s="13"/>
+    </row>
+    <row r="275" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M275" s="13"/>
+    </row>
+    <row r="276" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M276" s="13"/>
+    </row>
+    <row r="277" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M277" s="13"/>
+    </row>
+    <row r="278" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M278" s="13"/>
+    </row>
+    <row r="279" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M279" s="13"/>
+    </row>
+    <row r="280" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M280" s="13"/>
+    </row>
+    <row r="281" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M281" s="13"/>
+    </row>
+    <row r="282" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M282" s="13"/>
+    </row>
+    <row r="283" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M283" s="13"/>
+    </row>
+    <row r="284" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M284" s="13"/>
+    </row>
+    <row r="285" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M285" s="13"/>
+    </row>
+    <row r="286" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M286" s="13"/>
+    </row>
+    <row r="287" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M287" s="13"/>
+    </row>
+    <row r="288" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M288" s="13"/>
+    </row>
+    <row r="289" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M289" s="13"/>
+    </row>
+    <row r="290" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M290" s="13"/>
+    </row>
+    <row r="291" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M291" s="13"/>
+    </row>
+    <row r="292" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M292" s="13"/>
+    </row>
+    <row r="293" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M293" s="13"/>
+    </row>
+    <row r="294" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M294" s="13"/>
+    </row>
+    <row r="295" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M295" s="13"/>
+    </row>
+    <row r="296" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M296" s="13"/>
+    </row>
+    <row r="297" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M297" s="13"/>
+    </row>
+    <row r="298" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M298" s="13"/>
+    </row>
+    <row r="299" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M299" s="13"/>
+    </row>
+    <row r="300" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M300" s="13"/>
+    </row>
+    <row r="301" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M301" s="13"/>
+    </row>
+    <row r="302" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M302" s="13"/>
+    </row>
+    <row r="303" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M303" s="13"/>
+    </row>
+    <row r="304" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M304" s="13"/>
+    </row>
+    <row r="305" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M305" s="13"/>
+    </row>
+    <row r="306" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M306" s="13"/>
+    </row>
+    <row r="307" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M307" s="13"/>
+    </row>
+    <row r="308" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M308" s="13"/>
+    </row>
+    <row r="309" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M309" s="13"/>
+    </row>
+    <row r="310" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M310" s="13"/>
+    </row>
+    <row r="311" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M311" s="13"/>
+    </row>
+    <row r="312" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M312" s="13"/>
+    </row>
+    <row r="313" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M313" s="13"/>
+    </row>
+    <row r="314" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M314" s="13"/>
+    </row>
+    <row r="315" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M315" s="13"/>
+    </row>
+    <row r="316" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M316" s="13"/>
+    </row>
+    <row r="317" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M317" s="13"/>
+    </row>
+    <row r="318" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M318" s="13"/>
+    </row>
+    <row r="319" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M319" s="13"/>
+    </row>
+    <row r="320" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M320" s="13"/>
+    </row>
+    <row r="321" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M321" s="13"/>
+    </row>
+    <row r="322" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M322" s="13"/>
+    </row>
+    <row r="323" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M323" s="13"/>
+    </row>
+    <row r="324" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M324" s="13"/>
+    </row>
+    <row r="325" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M325" s="13"/>
+    </row>
+    <row r="326" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M326" s="13"/>
+    </row>
+    <row r="327" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M327" s="13"/>
+    </row>
+    <row r="328" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M328" s="13"/>
+    </row>
+    <row r="329" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M329" s="13"/>
+    </row>
+    <row r="330" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M330" s="13"/>
+    </row>
+    <row r="331" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M331" s="13"/>
+    </row>
+    <row r="332" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M332" s="13"/>
+    </row>
+    <row r="333" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M333" s="13"/>
+    </row>
+    <row r="334" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M334" s="13"/>
+    </row>
+    <row r="335" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M335" s="13"/>
+    </row>
+    <row r="336" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M336" s="13"/>
+    </row>
+    <row r="337" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M337" s="13"/>
+    </row>
+    <row r="338" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M338" s="13"/>
+    </row>
+    <row r="339" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M339" s="13"/>
+    </row>
+    <row r="340" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M340" s="13"/>
+    </row>
+    <row r="341" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M341" s="13"/>
+    </row>
+    <row r="342" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M342" s="13"/>
+    </row>
+    <row r="343" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M343" s="13"/>
+    </row>
+    <row r="344" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M344" s="13"/>
+    </row>
+    <row r="345" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M345" s="13"/>
+    </row>
+    <row r="346" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M346" s="13"/>
+    </row>
+    <row r="347" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M347" s="13"/>
+    </row>
+    <row r="348" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M348" s="13"/>
+    </row>
+    <row r="349" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M349" s="13"/>
+    </row>
+    <row r="350" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M350" s="13"/>
+    </row>
+    <row r="351" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M351" s="13"/>
+    </row>
+    <row r="352" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M352" s="13"/>
+    </row>
+    <row r="353" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M353" s="13"/>
+    </row>
+    <row r="354" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M354" s="13"/>
+    </row>
+    <row r="355" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M355" s="13"/>
+    </row>
+    <row r="356" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M356" s="13"/>
+    </row>
+    <row r="357" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M357" s="13"/>
+    </row>
+    <row r="358" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M358" s="13"/>
+    </row>
+    <row r="359" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M359" s="13"/>
+    </row>
+    <row r="360" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M360" s="13"/>
+    </row>
+    <row r="361" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M361" s="13"/>
+    </row>
+    <row r="362" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M362" s="13"/>
+    </row>
+    <row r="363" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M363" s="13"/>
+    </row>
+    <row r="364" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M364" s="13"/>
+    </row>
+    <row r="365" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M365" s="13"/>
+    </row>
+    <row r="366" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M366" s="13"/>
+    </row>
+    <row r="367" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M367" s="13"/>
+    </row>
+    <row r="368" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M368" s="13"/>
+    </row>
+    <row r="369" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M369" s="13"/>
+    </row>
+    <row r="370" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M370" s="13"/>
+    </row>
+    <row r="371" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M371" s="13"/>
+    </row>
+    <row r="372" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M372" s="13"/>
+    </row>
+    <row r="373" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M373" s="13"/>
+    </row>
+    <row r="374" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M374" s="13"/>
+    </row>
+    <row r="375" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M375" s="13"/>
+    </row>
+    <row r="376" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M376" s="13"/>
+    </row>
+    <row r="377" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M377" s="13"/>
+    </row>
+    <row r="378" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M378" s="13"/>
+    </row>
+    <row r="379" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M379" s="13"/>
+    </row>
+    <row r="380" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M380" s="13"/>
+    </row>
+    <row r="381" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M381" s="13"/>
+    </row>
+    <row r="382" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M382" s="13"/>
+    </row>
+    <row r="383" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M383" s="13"/>
+    </row>
+    <row r="384" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M384" s="13"/>
+    </row>
+    <row r="385" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M385" s="13"/>
+    </row>
+    <row r="386" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M386" s="13"/>
+    </row>
+    <row r="387" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M387" s="13"/>
+    </row>
+    <row r="388" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M388" s="13"/>
+    </row>
+    <row r="389" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M389" s="13"/>
+    </row>
+    <row r="390" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M390" s="13"/>
+    </row>
+    <row r="391" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M391" s="13"/>
+    </row>
+    <row r="392" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M392" s="13"/>
+    </row>
+    <row r="393" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M393" s="13"/>
+    </row>
+    <row r="394" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M394" s="13"/>
+    </row>
+    <row r="395" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M395" s="13"/>
+    </row>
+    <row r="396" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M396" s="13"/>
+    </row>
+    <row r="397" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M397" s="13"/>
+    </row>
+    <row r="398" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M398" s="13"/>
+    </row>
+    <row r="399" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M399" s="13"/>
+    </row>
+    <row r="400" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M400" s="13"/>
+    </row>
+    <row r="401" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M401" s="13"/>
+    </row>
+    <row r="402" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M402" s="13"/>
+    </row>
+    <row r="403" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M403" s="13"/>
+    </row>
+    <row r="404" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M404" s="13"/>
+    </row>
+    <row r="405" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M405" s="13"/>
+    </row>
+    <row r="406" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M406" s="13"/>
+    </row>
+    <row r="407" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M407" s="13"/>
+    </row>
+    <row r="408" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M408" s="13"/>
+    </row>
+    <row r="409" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M409" s="13"/>
+    </row>
+    <row r="410" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M410" s="13"/>
+    </row>
+    <row r="411" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M411" s="13"/>
+    </row>
+    <row r="412" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M412" s="13"/>
+    </row>
+    <row r="413" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M413" s="13"/>
+    </row>
+    <row r="414" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M414" s="13"/>
+    </row>
+    <row r="415" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M415" s="13"/>
+    </row>
+    <row r="416" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M416" s="13"/>
+    </row>
+    <row r="417" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M417" s="13"/>
+    </row>
+    <row r="418" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M418" s="13"/>
+    </row>
+    <row r="419" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M419" s="13"/>
+    </row>
+    <row r="420" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M420" s="13"/>
+    </row>
+    <row r="421" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M421" s="13"/>
+    </row>
+    <row r="422" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M422" s="13"/>
+    </row>
+    <row r="423" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M423" s="13"/>
+    </row>
+    <row r="424" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M424" s="13"/>
+    </row>
+    <row r="425" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M425" s="13"/>
+    </row>
+    <row r="426" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M426" s="13"/>
+    </row>
+    <row r="427" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M427" s="13"/>
+    </row>
+    <row r="428" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M428" s="13"/>
+    </row>
+    <row r="429" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M429" s="13"/>
+    </row>
+    <row r="430" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M430" s="13"/>
+    </row>
+    <row r="431" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M431" s="13"/>
+    </row>
+    <row r="432" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M432" s="13"/>
+    </row>
+    <row r="433" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M433" s="13"/>
+    </row>
+    <row r="434" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M434" s="13"/>
+    </row>
+    <row r="435" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M435" s="13"/>
+    </row>
+    <row r="436" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M436" s="13"/>
+    </row>
+    <row r="437" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M437" s="13"/>
+    </row>
+    <row r="438" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M438" s="13"/>
+    </row>
+    <row r="439" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M439" s="13"/>
+    </row>
+    <row r="440" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M440" s="13"/>
+    </row>
+    <row r="441" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M441" s="13"/>
+    </row>
+    <row r="442" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M442" s="13"/>
+    </row>
+    <row r="443" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M443" s="13"/>
+    </row>
+    <row r="444" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M444" s="13"/>
+    </row>
+    <row r="445" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M445" s="13"/>
+    </row>
+    <row r="446" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M446" s="13"/>
+    </row>
+    <row r="447" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M447" s="13"/>
+    </row>
+    <row r="448" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M448" s="13"/>
+    </row>
+    <row r="449" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M449" s="13"/>
+    </row>
+    <row r="450" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M450" s="13"/>
+    </row>
+    <row r="451" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M451" s="13"/>
+    </row>
+    <row r="452" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M452" s="13"/>
+    </row>
+    <row r="453" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M453" s="13"/>
+    </row>
+    <row r="454" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M454" s="13"/>
+    </row>
+    <row r="455" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M455" s="13"/>
+    </row>
+    <row r="456" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M456" s="13"/>
+    </row>
+    <row r="457" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M457" s="13"/>
+    </row>
+    <row r="458" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M458" s="13"/>
+    </row>
+    <row r="459" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M459" s="13"/>
+    </row>
+    <row r="460" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M460" s="13"/>
+    </row>
+    <row r="461" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M461" s="13"/>
+    </row>
+    <row r="462" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M462" s="13"/>
+    </row>
+    <row r="463" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M463" s="13"/>
+    </row>
+    <row r="464" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M464" s="13"/>
+    </row>
+    <row r="465" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M465" s="13"/>
+    </row>
+    <row r="466" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M466" s="13"/>
+    </row>
+    <row r="467" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M467" s="13"/>
+    </row>
+    <row r="468" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M468" s="13"/>
+    </row>
+    <row r="469" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M469" s="13"/>
+    </row>
+    <row r="470" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M470" s="13"/>
+    </row>
+    <row r="471" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M471" s="13"/>
+    </row>
+    <row r="472" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M472" s="13"/>
+    </row>
+    <row r="473" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M473" s="13"/>
+    </row>
+    <row r="474" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M474" s="13"/>
+    </row>
+    <row r="475" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M475" s="13"/>
+    </row>
+    <row r="476" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M476" s="13"/>
+    </row>
+    <row r="477" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M477" s="13"/>
+    </row>
+    <row r="478" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M478" s="13"/>
+    </row>
+    <row r="479" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M479" s="13"/>
+    </row>
+    <row r="480" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M480" s="13"/>
+    </row>
+    <row r="481" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M481" s="13"/>
+    </row>
+    <row r="482" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M482" s="13"/>
+    </row>
+    <row r="483" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M483" s="13"/>
+    </row>
+    <row r="484" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M484" s="13"/>
+    </row>
+    <row r="485" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M485" s="13"/>
+    </row>
+    <row r="486" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M486" s="13"/>
+    </row>
+    <row r="487" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M487" s="13"/>
+    </row>
+    <row r="488" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M488" s="13"/>
+    </row>
+    <row r="489" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M489" s="13"/>
+    </row>
+    <row r="490" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M490" s="13"/>
+    </row>
+    <row r="491" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M491" s="13"/>
+    </row>
+    <row r="492" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M492" s="13"/>
+    </row>
+    <row r="493" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M493" s="13"/>
+    </row>
+    <row r="494" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M494" s="13"/>
+    </row>
+    <row r="495" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M495" s="13"/>
+    </row>
+    <row r="496" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M496" s="13"/>
+    </row>
+    <row r="497" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M497" s="13"/>
+    </row>
+    <row r="498" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M498" s="13"/>
+    </row>
+    <row r="499" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M499" s="13"/>
+    </row>
+    <row r="500" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M500" s="13"/>
+    </row>
+    <row r="501" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M501" s="13"/>
+    </row>
+    <row r="502" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M502" s="13"/>
+    </row>
+    <row r="503" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M503" s="13"/>
+    </row>
+    <row r="504" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M504" s="13"/>
+    </row>
+    <row r="505" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M505" s="13"/>
+    </row>
+    <row r="506" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M506" s="13"/>
+    </row>
+    <row r="507" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M507" s="13"/>
+    </row>
+    <row r="508" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M508" s="13"/>
+    </row>
+    <row r="509" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M509" s="13"/>
+    </row>
+    <row r="510" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M510" s="13"/>
+    </row>
+    <row r="511" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M511" s="13"/>
+    </row>
+    <row r="512" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M512" s="13"/>
+    </row>
+    <row r="513" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M513" s="13"/>
+    </row>
+    <row r="514" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M514" s="13"/>
+    </row>
+    <row r="515" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M515" s="13"/>
+    </row>
+    <row r="516" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M516" s="13"/>
+    </row>
+    <row r="517" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M517" s="13"/>
+    </row>
+    <row r="518" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M518" s="13"/>
+    </row>
+    <row r="519" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M519" s="13"/>
+    </row>
+    <row r="520" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M520" s="13"/>
+    </row>
+    <row r="521" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M521" s="13"/>
+    </row>
+    <row r="522" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M522" s="13"/>
+    </row>
+    <row r="523" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M523" s="13"/>
+    </row>
+    <row r="524" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M524" s="13"/>
+    </row>
+    <row r="525" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M525" s="13"/>
+    </row>
+    <row r="526" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M526" s="13"/>
+    </row>
+    <row r="527" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M527" s="13"/>
+    </row>
+    <row r="528" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M528" s="13"/>
+    </row>
+    <row r="529" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M529" s="13"/>
+    </row>
+    <row r="530" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M530" s="13"/>
+    </row>
+    <row r="531" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M531" s="13"/>
+    </row>
+    <row r="532" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M532" s="13"/>
+    </row>
+    <row r="533" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M533" s="13"/>
+    </row>
+    <row r="534" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M534" s="13"/>
+    </row>
+    <row r="535" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M535" s="13"/>
+    </row>
+    <row r="536" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M536" s="13"/>
+    </row>
+    <row r="537" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M537" s="13"/>
+    </row>
+    <row r="538" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M538" s="13"/>
+    </row>
+    <row r="539" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M539" s="13"/>
+    </row>
+    <row r="540" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M540" s="13"/>
+    </row>
+    <row r="541" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M541" s="13"/>
+    </row>
+    <row r="542" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M542" s="13"/>
+    </row>
+    <row r="543" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M543" s="13"/>
+    </row>
+    <row r="544" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M544" s="13"/>
+    </row>
+    <row r="545" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M545" s="13"/>
+    </row>
+    <row r="546" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M546" s="13"/>
+    </row>
+    <row r="547" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M547" s="13"/>
+    </row>
+    <row r="548" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M548" s="13"/>
+    </row>
+    <row r="549" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M549" s="13"/>
+    </row>
+    <row r="550" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M550" s="13"/>
+    </row>
+    <row r="551" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M551" s="13"/>
+    </row>
+    <row r="552" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M552" s="13"/>
+    </row>
+    <row r="553" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M553" s="13"/>
+    </row>
+    <row r="554" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M554" s="13"/>
+    </row>
+    <row r="555" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M555" s="13"/>
+    </row>
+    <row r="556" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M556" s="13"/>
+    </row>
+    <row r="557" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M557" s="13"/>
+    </row>
+    <row r="558" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M558" s="13"/>
+    </row>
+    <row r="559" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M559" s="13"/>
+    </row>
+    <row r="560" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M560" s="13"/>
+    </row>
+    <row r="561" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M561" s="13"/>
+    </row>
+    <row r="562" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M562" s="13"/>
+    </row>
+    <row r="563" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M563" s="13"/>
+    </row>
+    <row r="564" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M564" s="13"/>
+    </row>
+    <row r="565" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M565" s="13"/>
+    </row>
+    <row r="566" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M566" s="13"/>
+    </row>
+    <row r="567" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M567" s="13"/>
+    </row>
+    <row r="568" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M568" s="13"/>
+    </row>
+    <row r="569" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M569" s="13"/>
+    </row>
+    <row r="570" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M570" s="13"/>
+    </row>
+    <row r="571" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M571" s="13"/>
+    </row>
+    <row r="572" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M572" s="13"/>
+    </row>
+    <row r="573" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M573" s="13"/>
+    </row>
+    <row r="574" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M574" s="13"/>
+    </row>
+    <row r="575" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M575" s="13"/>
+    </row>
+    <row r="576" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M576" s="13"/>
+    </row>
+    <row r="577" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M577" s="13"/>
+    </row>
+    <row r="578" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M578" s="13"/>
+    </row>
+    <row r="579" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M579" s="13"/>
+    </row>
+    <row r="580" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M580" s="13"/>
+    </row>
+    <row r="581" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M581" s="13"/>
+    </row>
+    <row r="582" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M582" s="13"/>
+    </row>
+    <row r="583" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M583" s="13"/>
+    </row>
+    <row r="584" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M584" s="13"/>
+    </row>
+    <row r="585" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M585" s="13"/>
+    </row>
+    <row r="586" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M586" s="13"/>
+    </row>
+    <row r="587" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M587" s="13"/>
+    </row>
+    <row r="588" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M588" s="13"/>
+    </row>
+    <row r="589" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M589" s="13"/>
+    </row>
+    <row r="590" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M590" s="13"/>
+    </row>
+    <row r="591" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M591" s="13"/>
+    </row>
+    <row r="592" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M592" s="13"/>
+    </row>
+    <row r="593" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M593" s="13"/>
+    </row>
+    <row r="594" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M594" s="13"/>
+    </row>
+    <row r="595" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M595" s="13"/>
+    </row>
+    <row r="596" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M596" s="13"/>
+    </row>
+    <row r="597" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M597" s="13"/>
+    </row>
+    <row r="598" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M598" s="13"/>
+    </row>
+    <row r="599" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M599" s="13"/>
+    </row>
+    <row r="600" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M600" s="13"/>
+    </row>
+    <row r="601" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M601" s="13"/>
+    </row>
+    <row r="602" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M602" s="13"/>
+    </row>
+    <row r="603" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M603" s="13"/>
+    </row>
+    <row r="604" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M604" s="13"/>
+    </row>
+    <row r="605" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M605" s="13"/>
+    </row>
+    <row r="606" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M606" s="13"/>
+    </row>
+    <row r="607" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M607" s="13"/>
+    </row>
+    <row r="608" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M608" s="13"/>
+    </row>
+    <row r="609" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M609" s="13"/>
+    </row>
+    <row r="610" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M610" s="13"/>
+    </row>
+    <row r="611" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M611" s="13"/>
+    </row>
+    <row r="612" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M612" s="13"/>
+    </row>
+    <row r="613" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M613" s="13"/>
+    </row>
+    <row r="614" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M614" s="13"/>
+    </row>
+    <row r="615" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M615" s="13"/>
+    </row>
+    <row r="616" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M616" s="13"/>
+    </row>
+    <row r="617" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M617" s="13"/>
+    </row>
+    <row r="618" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M618" s="13"/>
+    </row>
+    <row r="619" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M619" s="13"/>
+    </row>
+    <row r="620" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M620" s="13"/>
+    </row>
+    <row r="621" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M621" s="13"/>
+    </row>
+    <row r="622" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M622" s="13"/>
+    </row>
+    <row r="623" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M623" s="13"/>
+    </row>
+    <row r="624" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M624" s="13"/>
+    </row>
+    <row r="625" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M625" s="13"/>
+    </row>
+    <row r="626" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M626" s="13"/>
+    </row>
+    <row r="627" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M627" s="13"/>
+    </row>
+    <row r="628" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M628" s="13"/>
+    </row>
+    <row r="629" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M629" s="13"/>
+    </row>
+    <row r="630" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M630" s="13"/>
+    </row>
+    <row r="631" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M631" s="13"/>
+    </row>
+    <row r="632" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M632" s="13"/>
+    </row>
+    <row r="633" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M633" s="13"/>
+    </row>
+    <row r="634" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M634" s="13"/>
+    </row>
+    <row r="635" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M635" s="13"/>
+    </row>
+    <row r="636" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M636" s="13"/>
+    </row>
+    <row r="637" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M637" s="13"/>
+    </row>
+    <row r="638" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M638" s="13"/>
+    </row>
+    <row r="639" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M639" s="13"/>
+    </row>
+    <row r="640" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M640" s="13"/>
+    </row>
+    <row r="641" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M641" s="13"/>
+    </row>
+    <row r="642" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M642" s="13"/>
+    </row>
+    <row r="643" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M643" s="13"/>
+    </row>
+    <row r="644" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M644" s="13"/>
+    </row>
+    <row r="645" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M645" s="13"/>
+    </row>
+    <row r="646" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M646" s="13"/>
+    </row>
+    <row r="647" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M647" s="13"/>
+    </row>
+    <row r="648" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M648" s="13"/>
+    </row>
+    <row r="649" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M649" s="13"/>
+    </row>
+    <row r="650" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M650" s="13"/>
+    </row>
+    <row r="651" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M651" s="13"/>
+    </row>
+    <row r="652" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M652" s="13"/>
+    </row>
+    <row r="653" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M653" s="13"/>
+    </row>
+    <row r="654" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M654" s="13"/>
+    </row>
+    <row r="655" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M655" s="13"/>
+    </row>
+    <row r="656" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M656" s="13"/>
+    </row>
+    <row r="657" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M657" s="13"/>
+    </row>
+    <row r="658" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M658" s="13"/>
+    </row>
+    <row r="659" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M659" s="13"/>
+    </row>
+    <row r="660" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M660" s="13"/>
+    </row>
+    <row r="661" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M661" s="13"/>
+    </row>
+    <row r="662" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M662" s="13"/>
+    </row>
+    <row r="663" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M663" s="13"/>
+    </row>
+    <row r="664" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M664" s="13"/>
+    </row>
+    <row r="665" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M665" s="13"/>
+    </row>
+    <row r="666" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M666" s="13"/>
+    </row>
+    <row r="667" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M667" s="13"/>
+    </row>
+    <row r="668" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M668" s="13"/>
+    </row>
+    <row r="669" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M669" s="13"/>
+    </row>
+    <row r="670" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M670" s="13"/>
+    </row>
+    <row r="671" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M671" s="13"/>
+    </row>
+    <row r="672" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M672" s="13"/>
+    </row>
+    <row r="673" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M673" s="13"/>
+    </row>
+    <row r="674" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M674" s="13"/>
+    </row>
+    <row r="675" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M675" s="13"/>
+    </row>
+    <row r="676" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M676" s="13"/>
+    </row>
+    <row r="677" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M677" s="13"/>
+    </row>
+    <row r="678" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M678" s="13"/>
+    </row>
+    <row r="679" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M679" s="13"/>
+    </row>
+    <row r="680" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M680" s="13"/>
+    </row>
+    <row r="681" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M681" s="13"/>
+    </row>
+    <row r="682" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M682" s="13"/>
+    </row>
+    <row r="683" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M683" s="13"/>
+    </row>
+    <row r="684" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M684" s="13"/>
+    </row>
+    <row r="685" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M685" s="13"/>
+    </row>
+    <row r="686" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M686" s="13"/>
+    </row>
+    <row r="687" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M687" s="13"/>
+    </row>
+    <row r="688" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M688" s="13"/>
+    </row>
+    <row r="689" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M689" s="13"/>
+    </row>
+    <row r="690" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M690" s="13"/>
+    </row>
+    <row r="691" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M691" s="13"/>
+    </row>
+    <row r="692" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M692" s="13"/>
+    </row>
+    <row r="693" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M693" s="13"/>
+    </row>
+    <row r="694" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M694" s="13"/>
+    </row>
+    <row r="695" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M695" s="13"/>
+    </row>
+    <row r="696" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M696" s="13"/>
+    </row>
+    <row r="697" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M697" s="13"/>
+    </row>
+    <row r="698" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M698" s="13"/>
+    </row>
+    <row r="699" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M699" s="13"/>
+    </row>
+    <row r="700" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M700" s="13"/>
+    </row>
+    <row r="701" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M701" s="13"/>
+    </row>
+    <row r="702" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M702" s="13"/>
+    </row>
+    <row r="703" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M703" s="13"/>
+    </row>
+    <row r="704" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M704" s="13"/>
+    </row>
+    <row r="705" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M705" s="13"/>
+    </row>
+    <row r="706" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M706" s="13"/>
+    </row>
+    <row r="707" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M707" s="13"/>
+    </row>
+    <row r="708" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M708" s="13"/>
+    </row>
+    <row r="709" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M709" s="13"/>
+    </row>
+    <row r="710" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M710" s="13"/>
+    </row>
+    <row r="711" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M711" s="13"/>
+    </row>
+    <row r="712" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M712" s="13"/>
+    </row>
+    <row r="713" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M713" s="13"/>
+    </row>
+    <row r="714" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M714" s="13"/>
+    </row>
+    <row r="715" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M715" s="13"/>
+    </row>
+    <row r="716" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M716" s="13"/>
+    </row>
+    <row r="717" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M717" s="13"/>
+    </row>
+    <row r="718" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M718" s="13"/>
+    </row>
+    <row r="719" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M719" s="13"/>
+    </row>
+    <row r="720" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M720" s="13"/>
+    </row>
+    <row r="721" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M721" s="13"/>
+    </row>
+    <row r="722" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M722" s="13"/>
+    </row>
+    <row r="723" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M723" s="13"/>
+    </row>
+    <row r="724" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M724" s="13"/>
+    </row>
+    <row r="725" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M725" s="13"/>
+    </row>
+    <row r="726" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M726" s="13"/>
+    </row>
+    <row r="727" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M727" s="13"/>
+    </row>
+    <row r="728" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M728" s="13"/>
+    </row>
+    <row r="729" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M729" s="13"/>
+    </row>
+    <row r="730" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M730" s="13"/>
+    </row>
+    <row r="731" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M731" s="13"/>
+    </row>
+    <row r="732" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M732" s="13"/>
+    </row>
+    <row r="733" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M733" s="13"/>
+    </row>
+    <row r="734" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M734" s="13"/>
+    </row>
+    <row r="735" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M735" s="13"/>
+    </row>
+    <row r="736" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M736" s="13"/>
+    </row>
+    <row r="737" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M737" s="13"/>
+    </row>
+    <row r="738" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M738" s="13"/>
+    </row>
+    <row r="739" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M739" s="13"/>
+    </row>
+    <row r="740" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M740" s="13"/>
+    </row>
+    <row r="741" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M741" s="13"/>
+    </row>
+    <row r="742" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M742" s="13"/>
+    </row>
+    <row r="743" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M743" s="13"/>
+    </row>
+    <row r="744" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M744" s="13"/>
+    </row>
+    <row r="745" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M745" s="13"/>
+    </row>
+    <row r="746" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M746" s="13"/>
+    </row>
+    <row r="747" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M747" s="13"/>
+    </row>
+    <row r="748" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M748" s="13"/>
+    </row>
+    <row r="749" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M749" s="13"/>
+    </row>
+    <row r="750" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M750" s="13"/>
+    </row>
+    <row r="751" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M751" s="13"/>
+    </row>
+    <row r="752" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M752" s="13"/>
+    </row>
+    <row r="753" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M753" s="13"/>
+    </row>
+    <row r="754" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M754" s="13"/>
+    </row>
+    <row r="755" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M755" s="13"/>
+    </row>
+    <row r="756" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M756" s="13"/>
+    </row>
+    <row r="757" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M757" s="13"/>
+    </row>
+    <row r="758" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M758" s="13"/>
+    </row>
+    <row r="759" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M759" s="13"/>
+    </row>
+    <row r="760" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M760" s="13"/>
+    </row>
+    <row r="761" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M761" s="13"/>
+    </row>
+    <row r="762" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M762" s="13"/>
+    </row>
+    <row r="763" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M763" s="13"/>
+    </row>
+    <row r="764" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M764" s="13"/>
+    </row>
+    <row r="765" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M765" s="13"/>
+    </row>
+    <row r="766" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M766" s="13"/>
+    </row>
+    <row r="767" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M767" s="13"/>
+    </row>
+    <row r="768" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M768" s="13"/>
+    </row>
+    <row r="769" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M769" s="13"/>
+    </row>
+    <row r="770" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M770" s="13"/>
+    </row>
+    <row r="771" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M771" s="13"/>
+    </row>
+    <row r="772" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M772" s="13"/>
+    </row>
+    <row r="773" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M773" s="13"/>
+    </row>
+    <row r="774" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M774" s="13"/>
+    </row>
+    <row r="775" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M775" s="13"/>
+    </row>
+    <row r="776" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M776" s="13"/>
+    </row>
+    <row r="777" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M777" s="13"/>
+    </row>
+    <row r="778" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M778" s="13"/>
+    </row>
+    <row r="779" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M779" s="13"/>
+    </row>
+    <row r="780" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M780" s="13"/>
+    </row>
+    <row r="781" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M781" s="13"/>
+    </row>
+    <row r="782" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M782" s="13"/>
+    </row>
+    <row r="783" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M783" s="13"/>
+    </row>
+    <row r="784" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M784" s="13"/>
+    </row>
+    <row r="785" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M785" s="13"/>
+    </row>
+    <row r="786" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M786" s="13"/>
+    </row>
+    <row r="787" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M787" s="13"/>
+    </row>
+    <row r="788" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M788" s="13"/>
+    </row>
+    <row r="789" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M789" s="13"/>
+    </row>
+    <row r="790" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M790" s="13"/>
+    </row>
+    <row r="791" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M791" s="13"/>
+    </row>
+    <row r="792" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M792" s="13"/>
+    </row>
+    <row r="793" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M793" s="13"/>
+    </row>
+    <row r="794" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M794" s="13"/>
+    </row>
+    <row r="795" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M795" s="13"/>
+    </row>
+    <row r="796" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M796" s="13"/>
+    </row>
+    <row r="797" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M797" s="13"/>
+    </row>
+    <row r="798" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M798" s="13"/>
+    </row>
+    <row r="799" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M799" s="13"/>
+    </row>
+    <row r="800" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M800" s="13"/>
+    </row>
+    <row r="801" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M801" s="13"/>
+    </row>
+    <row r="802" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M802" s="13"/>
+    </row>
+    <row r="803" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M803" s="13"/>
+    </row>
+    <row r="804" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M804" s="13"/>
+    </row>
+    <row r="805" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M805" s="13"/>
+    </row>
+    <row r="806" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M806" s="13"/>
+    </row>
+    <row r="807" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M807" s="13"/>
+    </row>
+    <row r="808" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M808" s="13"/>
+    </row>
+    <row r="809" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M809" s="13"/>
+    </row>
+    <row r="810" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M810" s="13"/>
+    </row>
+    <row r="811" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M811" s="13"/>
+    </row>
+    <row r="812" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M812" s="13"/>
+    </row>
+    <row r="813" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M813" s="13"/>
+    </row>
+    <row r="814" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M814" s="13"/>
+    </row>
+    <row r="815" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M815" s="13"/>
+    </row>
+    <row r="816" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M816" s="13"/>
+    </row>
+    <row r="817" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M817" s="13"/>
+    </row>
+    <row r="818" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M818" s="13"/>
+    </row>
+    <row r="819" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M819" s="13"/>
+    </row>
+    <row r="820" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M820" s="13"/>
+    </row>
+    <row r="821" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M821" s="13"/>
+    </row>
+    <row r="822" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M822" s="13"/>
+    </row>
+    <row r="823" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M823" s="13"/>
+    </row>
+    <row r="824" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M824" s="13"/>
+    </row>
+    <row r="825" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M825" s="13"/>
+    </row>
+    <row r="826" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M826" s="13"/>
+    </row>
+    <row r="827" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M827" s="13"/>
+    </row>
+    <row r="828" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M828" s="13"/>
+    </row>
+    <row r="829" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M829" s="13"/>
+    </row>
+    <row r="830" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M830" s="13"/>
+    </row>
+    <row r="831" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M831" s="13"/>
+    </row>
+    <row r="832" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M832" s="13"/>
+    </row>
+    <row r="833" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M833" s="13"/>
+    </row>
+    <row r="834" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M834" s="13"/>
+    </row>
+    <row r="835" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M835" s="13"/>
+    </row>
+    <row r="836" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M836" s="13"/>
+    </row>
+    <row r="837" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M837" s="13"/>
+    </row>
+    <row r="838" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M838" s="13"/>
+    </row>
+    <row r="839" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M839" s="13"/>
+    </row>
+    <row r="840" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M840" s="13"/>
+    </row>
+    <row r="841" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M841" s="13"/>
+    </row>
+    <row r="842" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M842" s="13"/>
+    </row>
+    <row r="843" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M843" s="13"/>
+    </row>
+    <row r="844" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M844" s="13"/>
+    </row>
+    <row r="845" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M845" s="13"/>
+    </row>
+    <row r="846" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M846" s="13"/>
+    </row>
+    <row r="847" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M847" s="13"/>
+    </row>
+    <row r="848" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M848" s="13"/>
+    </row>
+    <row r="849" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M849" s="13"/>
+    </row>
+    <row r="850" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M850" s="13"/>
+    </row>
+    <row r="851" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M851" s="13"/>
+    </row>
+    <row r="852" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M852" s="13"/>
+    </row>
+    <row r="853" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M853" s="13"/>
+    </row>
+    <row r="854" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M854" s="13"/>
+    </row>
+    <row r="855" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M855" s="13"/>
+    </row>
+    <row r="856" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M856" s="13"/>
+    </row>
+    <row r="857" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M857" s="13"/>
+    </row>
+    <row r="858" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M858" s="13"/>
+    </row>
+    <row r="859" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M859" s="13"/>
+    </row>
+    <row r="860" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M860" s="13"/>
+    </row>
+    <row r="861" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M861" s="13"/>
+    </row>
+    <row r="862" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M862" s="13"/>
+    </row>
+    <row r="863" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M863" s="13"/>
+    </row>
+    <row r="864" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M864" s="13"/>
+    </row>
+    <row r="865" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M865" s="13"/>
+    </row>
+    <row r="866" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M866" s="13"/>
+    </row>
+    <row r="867" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M867" s="13"/>
+    </row>
+    <row r="868" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M868" s="13"/>
+    </row>
+    <row r="869" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M869" s="13"/>
+    </row>
+    <row r="870" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M870" s="13"/>
+    </row>
+    <row r="871" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M871" s="13"/>
+    </row>
+    <row r="872" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M872" s="13"/>
+    </row>
+    <row r="873" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M873" s="13"/>
+    </row>
+    <row r="874" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M874" s="13"/>
+    </row>
+    <row r="875" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M875" s="13"/>
+    </row>
+    <row r="876" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M876" s="13"/>
+    </row>
+    <row r="877" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M877" s="13"/>
+    </row>
+    <row r="878" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M878" s="13"/>
+    </row>
+    <row r="879" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M879" s="13"/>
+    </row>
+    <row r="880" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M880" s="13"/>
+    </row>
+    <row r="881" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M881" s="13"/>
+    </row>
+    <row r="882" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M882" s="13"/>
+    </row>
+    <row r="883" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M883" s="13"/>
+    </row>
+    <row r="884" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M884" s="13"/>
+    </row>
+    <row r="885" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M885" s="13"/>
+    </row>
+    <row r="886" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M886" s="13"/>
+    </row>
+    <row r="887" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M887" s="13"/>
+    </row>
+    <row r="888" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M888" s="13"/>
+    </row>
+    <row r="889" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M889" s="13"/>
+    </row>
+    <row r="890" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M890" s="13"/>
+    </row>
+    <row r="891" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M891" s="13"/>
+    </row>
+    <row r="892" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M892" s="13"/>
+    </row>
+    <row r="893" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M893" s="13"/>
+    </row>
+    <row r="894" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M894" s="13"/>
+    </row>
+    <row r="895" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M895" s="13"/>
+    </row>
+    <row r="896" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M896" s="13"/>
+    </row>
+    <row r="897" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M897" s="13"/>
+    </row>
+    <row r="898" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M898" s="13"/>
+    </row>
+    <row r="899" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M899" s="13"/>
+    </row>
+    <row r="900" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M900" s="13"/>
+    </row>
+    <row r="901" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M901" s="13"/>
+    </row>
+    <row r="902" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M902" s="13"/>
+    </row>
+    <row r="903" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M903" s="13"/>
+    </row>
+    <row r="904" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M904" s="13"/>
+    </row>
+    <row r="905" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M905" s="13"/>
+    </row>
+    <row r="906" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M906" s="13"/>
+    </row>
+    <row r="907" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M907" s="13"/>
+    </row>
+    <row r="908" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M908" s="13"/>
+    </row>
+    <row r="909" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M909" s="13"/>
+    </row>
+    <row r="910" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M910" s="13"/>
+    </row>
+    <row r="911" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M911" s="13"/>
+    </row>
+    <row r="912" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M912" s="13"/>
+    </row>
+    <row r="913" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M913" s="13"/>
+    </row>
+    <row r="914" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M914" s="13"/>
+    </row>
+    <row r="915" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M915" s="13"/>
+    </row>
+    <row r="916" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M916" s="13"/>
+    </row>
+    <row r="917" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M917" s="13"/>
+    </row>
+    <row r="918" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M918" s="13"/>
+    </row>
+    <row r="919" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M919" s="13"/>
+    </row>
+    <row r="920" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M920" s="13"/>
+    </row>
+    <row r="921" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M921" s="13"/>
+    </row>
+    <row r="922" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M922" s="13"/>
+    </row>
+    <row r="923" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M923" s="13"/>
+    </row>
+    <row r="924" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M924" s="13"/>
+    </row>
+    <row r="925" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M925" s="13"/>
+    </row>
+    <row r="926" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M926" s="13"/>
+    </row>
+    <row r="927" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M927" s="13"/>
+    </row>
+    <row r="928" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M928" s="13"/>
+    </row>
+    <row r="929" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M929" s="13"/>
+    </row>
+    <row r="930" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M930" s="13"/>
+    </row>
+    <row r="931" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M931" s="13"/>
+    </row>
+    <row r="932" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M932" s="13"/>
+    </row>
+    <row r="933" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M933" s="13"/>
+    </row>
+    <row r="934" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M934" s="13"/>
+    </row>
+    <row r="935" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M935" s="13"/>
+    </row>
+    <row r="936" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M936" s="13"/>
+    </row>
+    <row r="937" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M937" s="13"/>
+    </row>
+    <row r="938" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M938" s="13"/>
+    </row>
+    <row r="939" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M939" s="13"/>
+    </row>
+    <row r="940" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M940" s="13"/>
+    </row>
+    <row r="941" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M941" s="13"/>
+    </row>
+    <row r="942" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M942" s="13"/>
+    </row>
+    <row r="943" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M943" s="13"/>
+    </row>
+    <row r="944" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M944" s="13"/>
+    </row>
+    <row r="945" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M945" s="13"/>
+    </row>
+    <row r="946" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M946" s="13"/>
+    </row>
+    <row r="947" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M947" s="13"/>
+    </row>
+    <row r="948" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M948" s="13"/>
+    </row>
+    <row r="949" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M949" s="13"/>
+    </row>
+    <row r="950" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M950" s="13"/>
+    </row>
+    <row r="951" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M951" s="13"/>
+    </row>
+    <row r="952" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M952" s="13"/>
+    </row>
+    <row r="953" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M953" s="13"/>
+    </row>
+    <row r="954" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M954" s="13"/>
+    </row>
+    <row r="955" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M955" s="13"/>
+    </row>
+    <row r="956" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M956" s="13"/>
+    </row>
+    <row r="957" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M957" s="13"/>
+    </row>
+    <row r="958" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M958" s="13"/>
+    </row>
+    <row r="959" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M959" s="13"/>
+    </row>
+    <row r="960" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M960" s="13"/>
+    </row>
+    <row r="961" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M961" s="13"/>
+    </row>
+    <row r="962" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M962" s="13"/>
+    </row>
+    <row r="963" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M963" s="13"/>
+    </row>
+    <row r="964" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M964" s="13"/>
+    </row>
+    <row r="965" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M965" s="13"/>
+    </row>
+    <row r="966" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M966" s="13"/>
+    </row>
+    <row r="967" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M967" s="13"/>
+    </row>
+    <row r="968" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M968" s="13"/>
+    </row>
+    <row r="969" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M969" s="13"/>
+    </row>
+    <row r="970" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M970" s="13"/>
+    </row>
+    <row r="971" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M971" s="13"/>
+    </row>
+    <row r="972" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M972" s="13"/>
+    </row>
+    <row r="973" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M973" s="13"/>
+    </row>
+    <row r="974" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M974" s="13"/>
+    </row>
+    <row r="975" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M975" s="13"/>
+    </row>
+    <row r="976" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M976" s="13"/>
+    </row>
+    <row r="977" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M977" s="13"/>
+    </row>
+    <row r="978" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M978" s="13"/>
+    </row>
+    <row r="979" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M979" s="13"/>
+    </row>
+    <row r="980" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M980" s="13"/>
+    </row>
+    <row r="981" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M981" s="13"/>
+    </row>
+    <row r="982" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M982" s="13"/>
+    </row>
+    <row r="983" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M983" s="13"/>
+    </row>
+    <row r="984" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M984" s="13"/>
+    </row>
+    <row r="985" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M985" s="13"/>
+    </row>
+    <row r="986" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M986" s="13"/>
+    </row>
+    <row r="987" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M987" s="13"/>
+    </row>
+    <row r="988" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M988" s="13"/>
+    </row>
+    <row r="989" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M989" s="13"/>
+    </row>
+    <row r="990" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M990" s="13"/>
+    </row>
+    <row r="991" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M991" s="13"/>
+    </row>
+    <row r="992" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M992" s="13"/>
+    </row>
+    <row r="993" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M993" s="13"/>
+    </row>
+    <row r="994" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M994" s="13"/>
+    </row>
+    <row r="995" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M995" s="13"/>
+    </row>
+    <row r="996" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M996" s="13"/>
+    </row>
+    <row r="997" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M997" s="13"/>
+    </row>
+    <row r="998" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M998" s="13"/>
+    </row>
+    <row r="999" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M999" s="13"/>
+    </row>
+    <row r="1000" spans="13:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M1000" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1451,19 +4623,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709CA693-7B71-4760-95D6-DBE94D9FE574}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H13" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="16.7265625" customWidth="1"/>
+    <col min="11" max="11" width="30.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>34</v>
       </c>
@@ -1485,8 +4658,11 @@
       <c r="G1" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1502,14 +4678,17 @@
       <c r="E2" s="10">
         <v>1</v>
       </c>
-      <c r="F2" s="11">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="G2" s="11">
-        <v>0.3923611111111111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1525,14 +4704,17 @@
       <c r="E3" s="10">
         <v>1</v>
       </c>
-      <c r="F3" s="11">
-        <v>0.57986111111111105</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0.61805555555555558</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1548,14 +4730,17 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="11">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0.3923611111111111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1571,14 +4756,17 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="11">
-        <v>0.39930555555555558</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F5" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1594,14 +4782,17 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="11">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0.4826388888888889</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F6" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1617,14 +4808,17 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="11">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0.52777777777777779</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1640,14 +4834,17 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="11">
-        <v>0.57986111111111105</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0.61805555555555558</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1663,14 +4860,17 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="11">
-        <v>0.625</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0.66319444444444442</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1686,14 +4886,17 @@
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="11">
-        <v>0.67013888888888884</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F10" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>0</v>
       </c>
@@ -1709,14 +4912,17 @@
       <c r="E11" s="10">
         <v>0</v>
       </c>
-      <c r="F11" s="11">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0.91319444444444453</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F11" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>0</v>
       </c>
@@ -1732,14 +4938,17 @@
       <c r="E12" s="10">
         <v>0</v>
       </c>
-      <c r="F12" s="11">
-        <v>0.4201388888888889</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0.47916666666666669</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F12" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>0</v>
       </c>
@@ -1755,14 +4964,17 @@
       <c r="E13" s="10">
         <v>0</v>
       </c>
-      <c r="F13" s="11">
-        <v>0.5625</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0.62152777777777779</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F13" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="10">
         <v>0</v>
       </c>
@@ -1778,14 +4990,17 @@
       <c r="E14" s="10">
         <v>0</v>
       </c>
-      <c r="F14" s="11">
-        <v>0.62847222222222221</v>
-      </c>
-      <c r="G14" s="11">
-        <v>0.6875</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F14" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>0</v>
       </c>
@@ -1801,14 +5016,17 @@
       <c r="E15" s="10">
         <v>0</v>
       </c>
-      <c r="F15" s="11">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0.76736111111111116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F15" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="10">
         <v>1</v>
       </c>
@@ -1824,14 +5042,17 @@
       <c r="E16" s="10">
         <v>0</v>
       </c>
-      <c r="F16" s="11">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0.3923611111111111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F16" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>1</v>
       </c>
@@ -1847,14 +5068,17 @@
       <c r="E17" s="10">
         <v>0</v>
       </c>
-      <c r="F17" s="11">
-        <v>0.67013888888888884</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0.72916666666666663</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F17" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>1</v>
       </c>
@@ -1870,14 +5094,17 @@
       <c r="E18" s="10">
         <v>0</v>
       </c>
-      <c r="F18" s="11">
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="G18" s="11">
-        <v>0.79513888888888884</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F18" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>1</v>
       </c>
@@ -1893,14 +5120,17 @@
       <c r="E19" s="10">
         <v>0</v>
       </c>
-      <c r="F19" s="11">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="G19" s="11">
-        <v>0.86111111111111116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F19" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="10">
         <v>1</v>
       </c>
@@ -1916,14 +5146,17 @@
       <c r="E20" s="10">
         <v>0</v>
       </c>
-      <c r="F20" s="11">
-        <v>0.86805555555555547</v>
-      </c>
-      <c r="G20" s="11">
-        <v>0.92708333333333337</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F20" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>1</v>
       </c>
@@ -1939,14 +5172,17 @@
       <c r="E21" s="10">
         <v>1</v>
       </c>
-      <c r="F21" s="11">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G21" s="11">
-        <v>0.3923611111111111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F21" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="10">
         <v>1</v>
       </c>
@@ -1962,14 +5198,17 @@
       <c r="E22" s="10">
         <v>1</v>
       </c>
-      <c r="F22" s="11">
-        <v>0.67013888888888884</v>
-      </c>
-      <c r="G22" s="11">
-        <v>0.72916666666666663</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F22" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>0</v>
       </c>
@@ -1985,14 +5224,17 @@
       <c r="E23" s="10">
         <v>1</v>
       </c>
-      <c r="F23" s="11">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G23" s="11">
-        <v>0.3923611111111111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="10">
         <v>0</v>
       </c>
@@ -2008,14 +5250,17 @@
       <c r="E24" s="10">
         <v>1</v>
       </c>
-      <c r="F24" s="11">
-        <v>0.67013888888888884</v>
-      </c>
-      <c r="G24" s="11">
-        <v>0.72916666666666663</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F24" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>0</v>
       </c>
@@ -2031,14 +5276,17 @@
       <c r="E25" s="10">
         <v>0</v>
       </c>
-      <c r="F25" s="11">
-        <v>0.5625</v>
-      </c>
-      <c r="G25" s="11">
-        <v>0.68402777777777779</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F25" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="10">
         <v>0</v>
       </c>
@@ -2054,14 +5302,17 @@
       <c r="E26" s="10">
         <v>0</v>
       </c>
-      <c r="F26" s="11">
-        <v>0.5625</v>
-      </c>
-      <c r="G26" s="11">
-        <v>0.68402777777777779</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F26" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="17" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
         <v>0</v>
       </c>
@@ -2077,14 +5328,21 @@
       <c r="E27" s="10">
         <v>0</v>
       </c>
-      <c r="F27" s="11">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="G27" s="11">
-        <v>0.92708333333333337</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F27" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="10">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" ht="17" x14ac:dyDescent="0.35">
       <c r="A28" s="10">
         <v>0</v>
       </c>
@@ -2100,14 +5358,21 @@
       <c r="E28" s="10">
         <v>0</v>
       </c>
-      <c r="F28" s="11">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="G28" s="11">
-        <v>0.92708333333333337</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F28" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" s="10">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" ht="17" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
         <v>0</v>
       </c>
@@ -2123,15 +5388,322 @@
       <c r="E29" s="10">
         <v>0</v>
       </c>
-      <c r="F29" s="11">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="G29" s="11">
-        <v>0.92708333333333337</v>
+      <c r="F29" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H29" s="10">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="1:14" ht="17" x14ac:dyDescent="0.35">
+      <c r="A30" s="10">
+        <v>0</v>
+      </c>
+      <c r="B30" s="10">
+        <v>1</v>
+      </c>
+      <c r="C30" s="10">
+        <v>0</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30" s="10">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" ht="17" x14ac:dyDescent="0.35">
+      <c r="A31" s="10">
+        <v>0</v>
+      </c>
+      <c r="B31" s="10">
+        <v>0</v>
+      </c>
+      <c r="C31" s="10">
+        <v>0</v>
+      </c>
+      <c r="D31" s="10">
+        <v>1</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H31" s="10">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="1:14" ht="17" x14ac:dyDescent="0.35">
+      <c r="A32" s="10">
+        <v>0</v>
+      </c>
+      <c r="B32" s="10">
+        <v>1</v>
+      </c>
+      <c r="C32" s="10">
+        <v>0</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H32" s="10">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="10">
+        <v>0</v>
+      </c>
+      <c r="B33" s="10">
+        <v>0</v>
+      </c>
+      <c r="C33" s="10">
+        <v>0</v>
+      </c>
+      <c r="D33" s="10">
+        <v>1</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="10">
+        <v>0</v>
+      </c>
+      <c r="B34" s="10">
+        <v>0</v>
+      </c>
+      <c r="C34" s="10">
+        <v>1</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H34" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="10">
+        <v>0</v>
+      </c>
+      <c r="B35" s="10">
+        <v>0</v>
+      </c>
+      <c r="C35" s="10">
+        <v>0</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0</v>
+      </c>
+      <c r="E35" s="10">
+        <v>1</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H35" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="10">
+        <v>1</v>
+      </c>
+      <c r="B36" s="10">
+        <v>0</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H36" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="10">
+        <v>0</v>
+      </c>
+      <c r="B37" s="10">
+        <v>0</v>
+      </c>
+      <c r="C37" s="10">
+        <v>1</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H37" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="10">
+        <v>1</v>
+      </c>
+      <c r="B38" s="10">
+        <v>0</v>
+      </c>
+      <c r="C38" s="10">
+        <v>0</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0</v>
+      </c>
+      <c r="E38" s="10">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H38" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="10">
+        <v>0</v>
+      </c>
+      <c r="B39" s="10">
+        <v>0</v>
+      </c>
+      <c r="C39" s="10">
+        <v>1</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0</v>
+      </c>
+      <c r="E39" s="10">
+        <v>0</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H39" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="10">
+        <v>0</v>
+      </c>
+      <c r="B40" s="10">
+        <v>0</v>
+      </c>
+      <c r="C40" s="10">
+        <v>0</v>
+      </c>
+      <c r="D40" s="10">
+        <v>1</v>
+      </c>
+      <c r="E40" s="10">
+        <v>0</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H40" s="10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2139,8 +5711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26F49D5-A316-4571-84F2-F4DF29EA2B57}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
